--- a/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
+++ b/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA0336-4673-4C86-99BB-3DE524D64B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C1CAE-42E6-42A0-82C0-B5F264E4E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3056,9 +3056,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -3474,7 +3474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3629,6 +3629,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3958,11 +3964,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4294,7 +4300,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4464,7 +4470,7 @@
     <xf numFmtId="9" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4520,7 +4526,7 @@
     <xf numFmtId="9" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4532,7 +4538,7 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4556,7 +4562,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4703,13 +4709,13 @@
     <xf numFmtId="9" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4760,7 +4766,7 @@
     <xf numFmtId="0" fontId="42" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4796,13 +4802,13 @@
     <xf numFmtId="0" fontId="53" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
@@ -4845,6 +4851,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4901,16 +4920,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -9970,14 +9979,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="349" t="s">
+      <c r="I1" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -12856,14 +12865,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="351" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
-      <c r="N1" s="351"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -15663,14 +15672,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="349" t="s">
+      <c r="I1" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -18732,14 +18741,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="349" t="s">
+      <c r="I1" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21915,14 +21924,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="349" t="s">
+      <c r="I1" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24837,9 +24846,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23:L23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E2:E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -24852,7 +24861,7 @@
     <col min="6" max="6" width="146.5703125" customWidth="1"/>
     <col min="7" max="7" width="63.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -24881,7 +24890,7 @@
       <c r="D1" s="304" t="s">
         <v>547</v>
       </c>
-      <c r="E1" s="362" t="s">
+      <c r="E1" s="343" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="246" t="s">
@@ -24893,14 +24902,14 @@
       <c r="H1" s="247" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="352" t="s">
+      <c r="I1" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
-      <c r="N1" s="352"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
       <c r="O1" s="249" t="s">
         <v>9</v>
       </c>
@@ -24936,7 +24945,7 @@
       <c r="D2" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="363" t="s">
+      <c r="E2" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="297" t="s">
@@ -24998,7 +25007,7 @@
       <c r="D3" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="363" t="s">
+      <c r="E3" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="297" t="s">
@@ -25060,7 +25069,7 @@
       <c r="D4" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="297" t="s">
@@ -25122,7 +25131,7 @@
       <c r="D5" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="363" t="s">
+      <c r="E5" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="297" t="s">
@@ -25182,7 +25191,7 @@
       <c r="D6" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="363" t="s">
+      <c r="E6" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="297" t="s">
@@ -25242,7 +25251,7 @@
       <c r="D7" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="363" t="s">
+      <c r="E7" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="297" t="s">
@@ -25300,7 +25309,7 @@
       <c r="D8" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="363" t="s">
+      <c r="E8" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="185" t="s">
@@ -25362,7 +25371,7 @@
       <c r="D9" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="363" t="s">
+      <c r="E9" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="185" t="s">
@@ -25424,7 +25433,7 @@
       <c r="D10" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="363" t="s">
+      <c r="E10" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="185" t="s">
@@ -25486,7 +25495,7 @@
       <c r="D11" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="185" t="s">
@@ -25546,7 +25555,7 @@
       <c r="D12" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="363" t="s">
+      <c r="E12" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="185" t="s">
@@ -25606,7 +25615,7 @@
       <c r="D13" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="363" t="s">
+      <c r="E13" s="344" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="185" t="s">
@@ -25664,7 +25673,7 @@
       <c r="D14" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="363" t="s">
+      <c r="E14" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="185" t="s">
@@ -25724,7 +25733,7 @@
       <c r="D15" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="363" t="s">
+      <c r="E15" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="185" t="s">
@@ -25786,7 +25795,7 @@
       <c r="D16" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="363" t="s">
+      <c r="E16" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="185" t="s">
@@ -25848,7 +25857,7 @@
       <c r="D17" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="363" t="s">
+      <c r="E17" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="185" t="s">
@@ -25910,7 +25919,7 @@
       <c r="D18" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="363" t="s">
+      <c r="E18" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="185" t="s">
@@ -25970,7 +25979,7 @@
       <c r="D19" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="363" t="s">
+      <c r="E19" s="344" t="s">
         <v>90</v>
       </c>
       <c r="F19" s="185" t="s">
@@ -26030,7 +26039,7 @@
       <c r="D20" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="364" t="s">
+      <c r="E20" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="146" t="s">
@@ -26073,7 +26082,7 @@
         <v>1</v>
       </c>
       <c r="U20" s="235"/>
-      <c r="V20" s="365" t="s">
+      <c r="V20" s="346" t="s">
         <v>702</v>
       </c>
     </row>
@@ -26090,7 +26099,7 @@
       <c r="D21" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="364" t="s">
+      <c r="E21" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="146" t="s">
@@ -26135,7 +26144,7 @@
       <c r="U21" s="325">
         <v>2</v>
       </c>
-      <c r="V21" s="365"/>
+      <c r="V21" s="346"/>
     </row>
     <row r="22" spans="1:22" ht="78.75">
       <c r="A22" s="147" t="s">
@@ -26150,7 +26159,7 @@
       <c r="D22" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="364" t="s">
+      <c r="E22" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="146" t="s">
@@ -26195,7 +26204,7 @@
       <c r="U22" s="325">
         <v>3</v>
       </c>
-      <c r="V22" s="365"/>
+      <c r="V22" s="346"/>
     </row>
     <row r="23" spans="1:22" ht="78.75">
       <c r="A23" s="147" t="s">
@@ -26210,7 +26219,7 @@
       <c r="D23" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="364" t="s">
+      <c r="E23" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="146" t="s">
@@ -26255,7 +26264,7 @@
       <c r="U23" s="325">
         <v>4</v>
       </c>
-      <c r="V23" s="365"/>
+      <c r="V23" s="346"/>
     </row>
     <row r="24" spans="1:22" ht="78.75">
       <c r="A24" s="147" t="s">
@@ -26270,7 +26279,7 @@
       <c r="D24" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="364" t="s">
+      <c r="E24" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F24" s="146" t="s">
@@ -26313,7 +26322,7 @@
         <v>28</v>
       </c>
       <c r="U24" s="235"/>
-      <c r="V24" s="365"/>
+      <c r="V24" s="346"/>
     </row>
     <row r="25" spans="1:22" ht="78.75">
       <c r="A25" s="147" t="s">
@@ -26328,7 +26337,7 @@
       <c r="D25" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="364" t="s">
+      <c r="E25" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F25" s="146" t="s">
@@ -26371,7 +26380,7 @@
         <v>1000</v>
       </c>
       <c r="U25" s="235"/>
-      <c r="V25" s="365"/>
+      <c r="V25" s="346"/>
     </row>
     <row r="26" spans="1:22" ht="78.75">
       <c r="A26" s="147" t="s">
@@ -26386,7 +26395,7 @@
       <c r="D26" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="364" t="s">
+      <c r="E26" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="146" t="s">
@@ -26429,7 +26438,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="235"/>
-      <c r="V26" s="365" t="s">
+      <c r="V26" s="346" t="s">
         <v>703</v>
       </c>
     </row>
@@ -26446,7 +26455,7 @@
       <c r="D27" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="364" t="s">
+      <c r="E27" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F27" s="146" t="s">
@@ -26491,7 +26500,7 @@
       <c r="U27" s="325">
         <v>2</v>
       </c>
-      <c r="V27" s="365"/>
+      <c r="V27" s="346"/>
     </row>
     <row r="28" spans="1:22" ht="78.75">
       <c r="A28" s="147" t="s">
@@ -26506,7 +26515,7 @@
       <c r="D28" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="364" t="s">
+      <c r="E28" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="146" t="s">
@@ -26551,7 +26560,7 @@
       <c r="U28" s="325">
         <v>3</v>
       </c>
-      <c r="V28" s="365"/>
+      <c r="V28" s="346"/>
     </row>
     <row r="29" spans="1:22" ht="78.75">
       <c r="A29" s="147" t="s">
@@ -26566,7 +26575,7 @@
       <c r="D29" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="364" t="s">
+      <c r="E29" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="146" t="s">
@@ -26611,7 +26620,7 @@
       <c r="U29" s="325">
         <v>4</v>
       </c>
-      <c r="V29" s="365"/>
+      <c r="V29" s="346"/>
     </row>
     <row r="30" spans="1:22" ht="78.75">
       <c r="A30" s="147" t="s">
@@ -26626,7 +26635,7 @@
       <c r="D30" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="364" t="s">
+      <c r="E30" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="146" t="s">
@@ -26669,7 +26678,7 @@
         <v>28</v>
       </c>
       <c r="U30" s="235"/>
-      <c r="V30" s="365"/>
+      <c r="V30" s="346"/>
     </row>
     <row r="31" spans="1:22" ht="78.75">
       <c r="A31" s="147" t="s">
@@ -26684,7 +26693,7 @@
       <c r="D31" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="364" t="s">
+      <c r="E31" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="146" t="s">
@@ -26727,7 +26736,7 @@
         <v>1000</v>
       </c>
       <c r="U31" s="235"/>
-      <c r="V31" s="365"/>
+      <c r="V31" s="346"/>
     </row>
     <row r="32" spans="1:22" ht="15.75">
       <c r="A32" s="147" t="s">
@@ -26742,7 +26751,7 @@
       <c r="D32" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="364" t="s">
+      <c r="E32" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="146" t="s">
@@ -26799,7 +26808,7 @@
       <c r="D33" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="364" t="s">
+      <c r="E33" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="146" t="s">
@@ -26858,7 +26867,7 @@
       <c r="D34" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="364" t="s">
+      <c r="E34" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="146" t="s">
@@ -26917,7 +26926,7 @@
       <c r="D35" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="364" t="s">
+      <c r="E35" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="146" t="s">
@@ -26976,7 +26985,7 @@
       <c r="D36" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="364" t="s">
+      <c r="E36" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F36" s="146" t="s">
@@ -27033,7 +27042,7 @@
       <c r="D37" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F37" s="146" t="s">
@@ -27043,8 +27052,8 @@
         <v>102</v>
       </c>
       <c r="H37" s="148"/>
-      <c r="I37" s="232">
-        <v>20</v>
+      <c r="I37" s="347">
+        <v>1000</v>
       </c>
       <c r="J37" s="318" t="s">
         <v>598</v>
@@ -27090,7 +27099,7 @@
       <c r="D38" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="364" t="s">
+      <c r="E38" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="146" t="s">
@@ -27149,7 +27158,7 @@
       <c r="D39" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="364" t="s">
+      <c r="E39" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="146" t="s">
@@ -27208,7 +27217,7 @@
       <c r="D40" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="364" t="s">
+      <c r="E40" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="146" t="s">
@@ -27267,7 +27276,7 @@
       <c r="D41" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="364" t="s">
+      <c r="E41" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="146" t="s">
@@ -27324,7 +27333,7 @@
       <c r="D42" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="364" t="s">
+      <c r="E42" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="146" t="s">
@@ -27334,8 +27343,8 @@
         <v>105</v>
       </c>
       <c r="H42" s="148"/>
-      <c r="I42" s="232">
-        <v>20</v>
+      <c r="I42" s="347">
+        <v>1000</v>
       </c>
       <c r="J42" s="318" t="s">
         <v>598</v>
@@ -27381,7 +27390,7 @@
       <c r="D43" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="364" t="s">
+      <c r="E43" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="146" t="s">
@@ -27436,7 +27445,7 @@
       <c r="D44" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="364" t="s">
+      <c r="E44" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="146" t="s">
@@ -27493,7 +27502,7 @@
       <c r="D45" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="364" t="s">
+      <c r="E45" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="146" t="s">
@@ -27552,7 +27561,7 @@
       <c r="D46" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="364" t="s">
+      <c r="E46" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="146" t="s">
@@ -27611,7 +27620,7 @@
       <c r="D47" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="364" t="s">
+      <c r="E47" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="146" t="s">
@@ -27670,7 +27679,7 @@
       <c r="D48" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="364" t="s">
+      <c r="E48" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="146" t="s">
@@ -27727,7 +27736,7 @@
       <c r="D49" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="364" t="s">
+      <c r="E49" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="146" t="s">
@@ -27737,8 +27746,8 @@
         <v>108</v>
       </c>
       <c r="H49" s="148"/>
-      <c r="I49" s="232">
-        <v>20</v>
+      <c r="I49" s="347">
+        <v>1000</v>
       </c>
       <c r="J49" s="318" t="s">
         <v>598</v>
@@ -27784,7 +27793,7 @@
       <c r="D50" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="364" t="s">
+      <c r="E50" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="295" t="s">
@@ -27843,7 +27852,7 @@
       <c r="D51" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="364" t="s">
+      <c r="E51" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F51" s="295" t="s">
@@ -27902,7 +27911,7 @@
       <c r="D52" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="364" t="s">
+      <c r="E52" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="295" t="s">
@@ -27961,7 +27970,7 @@
       <c r="D53" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="364" t="s">
+      <c r="E53" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F53" s="295" t="s">
@@ -28018,7 +28027,7 @@
       <c r="D54" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="364" t="s">
+      <c r="E54" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="295" t="s">
@@ -28028,8 +28037,8 @@
         <v>112</v>
       </c>
       <c r="H54" s="148"/>
-      <c r="I54" s="232">
-        <v>20</v>
+      <c r="I54" s="347">
+        <v>1000</v>
       </c>
       <c r="J54" s="318" t="s">
         <v>598</v>
@@ -28075,7 +28084,7 @@
       <c r="D55" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="364" t="s">
+      <c r="E55" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="295" t="s">
@@ -33638,7 +33647,7 @@
       <c r="D146" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="364" t="s">
+      <c r="E146" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F146" s="146" t="s">
@@ -33697,7 +33706,7 @@
       <c r="D147" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E147" s="364" t="s">
+      <c r="E147" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F147" s="146" t="s">
@@ -33756,7 +33765,7 @@
       <c r="D148" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E148" s="364" t="s">
+      <c r="E148" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F148" s="146" t="s">
@@ -33815,7 +33824,7 @@
       <c r="D149" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E149" s="364" t="s">
+      <c r="E149" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F149" s="146" t="s">
@@ -33872,7 +33881,7 @@
       <c r="D150" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E150" s="364" t="s">
+      <c r="E150" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F150" s="146" t="s">
@@ -33882,14 +33891,14 @@
         <v>592</v>
       </c>
       <c r="H150" s="148"/>
-      <c r="I150" s="232">
-        <v>20</v>
+      <c r="I150" s="347">
+        <v>1000</v>
       </c>
       <c r="J150" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K150" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L150" s="318" t="s">
         <v>19</v>
@@ -33929,7 +33938,7 @@
       <c r="D151" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="E151" s="364" t="s">
+      <c r="E151" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F151" s="146" t="s">
@@ -33984,7 +33993,7 @@
       <c r="D152" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E152" s="364" t="s">
+      <c r="E152" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F152" s="146" t="s">
@@ -34029,7 +34038,7 @@
       <c r="U152" s="325">
         <v>2</v>
       </c>
-      <c r="V152" s="365" t="s">
+      <c r="V152" s="346" t="s">
         <v>704</v>
       </c>
     </row>
@@ -34046,7 +34055,7 @@
       <c r="D153" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E153" s="364" t="s">
+      <c r="E153" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F153" s="146" t="s">
@@ -34091,7 +34100,7 @@
       <c r="U153" s="325">
         <v>3</v>
       </c>
-      <c r="V153" s="365"/>
+      <c r="V153" s="346"/>
     </row>
     <row r="154" spans="1:22" ht="15.75">
       <c r="A154" s="147" t="s">
@@ -34106,7 +34115,7 @@
       <c r="D154" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E154" s="364" t="s">
+      <c r="E154" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F154" s="146" t="s">
@@ -34151,7 +34160,7 @@
       <c r="U154" s="325">
         <v>4</v>
       </c>
-      <c r="V154" s="365"/>
+      <c r="V154" s="346"/>
     </row>
     <row r="155" spans="1:22" ht="31.5">
       <c r="A155" s="147" t="s">
@@ -34166,7 +34175,7 @@
       <c r="D155" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E155" s="364" t="s">
+      <c r="E155" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F155" s="146" t="s">
@@ -34209,7 +34218,7 @@
         <v>28</v>
       </c>
       <c r="U155" s="210"/>
-      <c r="V155" s="365"/>
+      <c r="V155" s="346"/>
     </row>
     <row r="156" spans="1:22" ht="15.75">
       <c r="A156" s="147" t="s">
@@ -34224,7 +34233,7 @@
       <c r="D156" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E156" s="364" t="s">
+      <c r="E156" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F156" s="146" t="s">
@@ -34234,14 +34243,14 @@
         <v>142</v>
       </c>
       <c r="H156" s="148"/>
-      <c r="I156" s="232">
-        <v>20</v>
+      <c r="I156" s="347">
+        <v>1000</v>
       </c>
       <c r="J156" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K156" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L156" s="318" t="s">
         <v>19</v>
@@ -34267,7 +34276,7 @@
         <v>1000</v>
       </c>
       <c r="U156" s="210"/>
-      <c r="V156" s="365"/>
+      <c r="V156" s="346"/>
     </row>
     <row r="157" spans="1:22" ht="15.75">
       <c r="A157" s="147" t="s">
@@ -34282,7 +34291,7 @@
       <c r="D157" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="E157" s="364" t="s">
+      <c r="E157" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F157" s="146" t="s">
@@ -34323,7 +34332,7 @@
         <v>574</v>
       </c>
       <c r="U157" s="210"/>
-      <c r="V157" s="365"/>
+      <c r="V157" s="346"/>
     </row>
     <row r="158" spans="1:22" ht="15.75">
       <c r="A158" s="147" t="s">
@@ -34338,7 +34347,7 @@
       <c r="D158" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E158" s="364" t="s">
+      <c r="E158" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F158" s="146" t="s">
@@ -34395,7 +34404,7 @@
       <c r="D159" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E159" s="364" t="s">
+      <c r="E159" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F159" s="146" t="s">
@@ -34454,7 +34463,7 @@
       <c r="D160" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E160" s="364" t="s">
+      <c r="E160" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F160" s="146" t="s">
@@ -34513,7 +34522,7 @@
       <c r="D161" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E161" s="364" t="s">
+      <c r="E161" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F161" s="146" t="s">
@@ -34572,7 +34581,7 @@
       <c r="D162" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E162" s="364" t="s">
+      <c r="E162" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F162" s="146" t="s">
@@ -34629,7 +34638,7 @@
       <c r="D163" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="E163" s="364" t="s">
+      <c r="E163" s="345" t="s">
         <v>90</v>
       </c>
       <c r="F163" s="146" t="s">
@@ -34639,14 +34648,14 @@
         <v>151</v>
       </c>
       <c r="H163" s="148"/>
-      <c r="I163" s="232">
-        <v>20</v>
+      <c r="I163" s="347">
+        <v>1000</v>
       </c>
       <c r="J163" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K163" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L163" s="318" t="s">
         <v>19</v>
@@ -34686,7 +34695,7 @@
       <c r="D164" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E164" s="364" t="s">
+      <c r="E164" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="146" t="s">
@@ -34729,7 +34738,7 @@
         <v>1</v>
       </c>
       <c r="U164" s="210"/>
-      <c r="V164" s="365" t="s">
+      <c r="V164" s="346" t="s">
         <v>705</v>
       </c>
     </row>
@@ -34746,7 +34755,7 @@
       <c r="D165" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="364" t="s">
+      <c r="E165" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F165" s="146" t="s">
@@ -34791,7 +34800,7 @@
       <c r="U165" s="325">
         <v>2</v>
       </c>
-      <c r="V165" s="365"/>
+      <c r="V165" s="346"/>
     </row>
     <row r="166" spans="1:22" ht="15.75">
       <c r="A166" s="147" t="s">
@@ -34806,7 +34815,7 @@
       <c r="D166" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E166" s="364" t="s">
+      <c r="E166" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="146" t="s">
@@ -34851,7 +34860,7 @@
       <c r="U166" s="325">
         <v>3</v>
       </c>
-      <c r="V166" s="365"/>
+      <c r="V166" s="346"/>
     </row>
     <row r="167" spans="1:22" ht="15.75">
       <c r="A167" s="147" t="s">
@@ -34866,7 +34875,7 @@
       <c r="D167" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E167" s="364" t="s">
+      <c r="E167" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F167" s="146" t="s">
@@ -34911,7 +34920,7 @@
       <c r="U167" s="325">
         <v>4</v>
       </c>
-      <c r="V167" s="365"/>
+      <c r="V167" s="346"/>
     </row>
     <row r="168" spans="1:22" ht="31.5">
       <c r="A168" s="147" t="s">
@@ -34926,7 +34935,7 @@
       <c r="D168" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E168" s="364" t="s">
+      <c r="E168" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F168" s="146" t="s">
@@ -34969,7 +34978,7 @@
         <v>28</v>
       </c>
       <c r="U168" s="210"/>
-      <c r="V168" s="365"/>
+      <c r="V168" s="346"/>
     </row>
     <row r="169" spans="1:22" ht="15.75">
       <c r="A169" s="147" t="s">
@@ -34984,7 +34993,7 @@
       <c r="D169" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="E169" s="364" t="s">
+      <c r="E169" s="345" t="s">
         <v>25</v>
       </c>
       <c r="F169" s="146" t="s">
@@ -34994,14 +35003,14 @@
         <v>154</v>
       </c>
       <c r="H169" s="148"/>
-      <c r="I169" s="232">
-        <v>20</v>
+      <c r="I169" s="347">
+        <v>1000</v>
       </c>
       <c r="J169" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K169" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L169" s="318" t="s">
         <v>19</v>
@@ -35027,7 +35036,7 @@
         <v>1000</v>
       </c>
       <c r="U169" s="210"/>
-      <c r="V169" s="365"/>
+      <c r="V169" s="346"/>
     </row>
     <row r="170" spans="1:22" ht="15.75">
       <c r="A170" s="147" t="s">
@@ -35042,7 +35051,7 @@
       <c r="D170" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E170" s="364" t="s">
+      <c r="E170" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F170" s="146" t="s">
@@ -35087,7 +35096,7 @@
       <c r="U170" s="325">
         <v>2</v>
       </c>
-      <c r="V170" s="365" t="s">
+      <c r="V170" s="346" t="s">
         <v>706</v>
       </c>
     </row>
@@ -35104,7 +35113,7 @@
       <c r="D171" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E171" s="364" t="s">
+      <c r="E171" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F171" s="146" t="s">
@@ -35149,7 +35158,7 @@
       <c r="U171" s="325">
         <v>3</v>
       </c>
-      <c r="V171" s="365"/>
+      <c r="V171" s="346"/>
     </row>
     <row r="172" spans="1:22" ht="15.75">
       <c r="A172" s="147" t="s">
@@ -35164,7 +35173,7 @@
       <c r="D172" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E172" s="364" t="s">
+      <c r="E172" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F172" s="146" t="s">
@@ -35209,7 +35218,7 @@
       <c r="U172" s="325">
         <v>4</v>
       </c>
-      <c r="V172" s="365"/>
+      <c r="V172" s="346"/>
     </row>
     <row r="173" spans="1:22" ht="31.5">
       <c r="A173" s="147" t="s">
@@ -35224,7 +35233,7 @@
       <c r="D173" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="364" t="s">
+      <c r="E173" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F173" s="146" t="s">
@@ -35267,7 +35276,7 @@
         <v>28</v>
       </c>
       <c r="U173" s="210"/>
-      <c r="V173" s="365"/>
+      <c r="V173" s="346"/>
     </row>
     <row r="174" spans="1:22" ht="15.75">
       <c r="A174" s="147" t="s">
@@ -35282,7 +35291,7 @@
       <c r="D174" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E174" s="364" t="s">
+      <c r="E174" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F174" s="146" t="s">
@@ -35292,14 +35301,14 @@
         <v>160</v>
       </c>
       <c r="H174" s="148"/>
-      <c r="I174" s="232">
-        <v>20</v>
+      <c r="I174" s="347">
+        <v>1000</v>
       </c>
       <c r="J174" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K174" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L174" s="318" t="s">
         <v>19</v>
@@ -35325,7 +35334,7 @@
         <v>1000</v>
       </c>
       <c r="U174" s="210"/>
-      <c r="V174" s="365"/>
+      <c r="V174" s="346"/>
     </row>
     <row r="175" spans="1:22" ht="15.75">
       <c r="A175" s="147" t="s">
@@ -35340,7 +35349,7 @@
       <c r="D175" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="E175" s="364" t="s">
+      <c r="E175" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F175" s="146" t="s">
@@ -35381,7 +35390,7 @@
         <v>574</v>
       </c>
       <c r="U175" s="210"/>
-      <c r="V175" s="365"/>
+      <c r="V175" s="346"/>
     </row>
     <row r="176" spans="1:22" ht="15.75">
       <c r="A176" s="147" t="s">
@@ -35396,7 +35405,7 @@
       <c r="D176" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E176" s="364" t="s">
+      <c r="E176" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F176" s="146" t="s">
@@ -35441,7 +35450,7 @@
       <c r="U176" s="325">
         <v>2</v>
       </c>
-      <c r="V176" s="365" t="s">
+      <c r="V176" s="346" t="s">
         <v>704</v>
       </c>
     </row>
@@ -35458,7 +35467,7 @@
       <c r="D177" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E177" s="364" t="s">
+      <c r="E177" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F177" s="146" t="s">
@@ -35503,7 +35512,7 @@
       <c r="U177" s="325">
         <v>3</v>
       </c>
-      <c r="V177" s="365"/>
+      <c r="V177" s="346"/>
     </row>
     <row r="178" spans="1:22" ht="15.75">
       <c r="A178" s="147" t="s">
@@ -35518,7 +35527,7 @@
       <c r="D178" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E178" s="364" t="s">
+      <c r="E178" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F178" s="146" t="s">
@@ -35563,7 +35572,7 @@
       <c r="U178" s="325">
         <v>4</v>
       </c>
-      <c r="V178" s="365"/>
+      <c r="V178" s="346"/>
     </row>
     <row r="179" spans="1:22" ht="31.5">
       <c r="A179" s="147" t="s">
@@ -35578,7 +35587,7 @@
       <c r="D179" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E179" s="364" t="s">
+      <c r="E179" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F179" s="146" t="s">
@@ -35621,7 +35630,7 @@
         <v>28</v>
       </c>
       <c r="U179" s="210"/>
-      <c r="V179" s="365"/>
+      <c r="V179" s="346"/>
     </row>
     <row r="180" spans="1:22" ht="15.75">
       <c r="A180" s="147" t="s">
@@ -35636,7 +35645,7 @@
       <c r="D180" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E180" s="364" t="s">
+      <c r="E180" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F180" s="146" t="s">
@@ -35646,14 +35655,14 @@
         <v>163</v>
       </c>
       <c r="H180" s="148"/>
-      <c r="I180" s="232">
-        <v>20</v>
+      <c r="I180" s="347">
+        <v>1000</v>
       </c>
       <c r="J180" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K180" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L180" s="318" t="s">
         <v>19</v>
@@ -35679,7 +35688,7 @@
         <v>1000</v>
       </c>
       <c r="U180" s="210"/>
-      <c r="V180" s="365"/>
+      <c r="V180" s="346"/>
     </row>
     <row r="181" spans="1:22" ht="15.75">
       <c r="A181" s="147" t="s">
@@ -35694,7 +35703,7 @@
       <c r="D181" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="E181" s="364" t="s">
+      <c r="E181" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F181" s="146" t="s">
@@ -35735,7 +35744,7 @@
         <v>574</v>
       </c>
       <c r="U181" s="210"/>
-      <c r="V181" s="365"/>
+      <c r="V181" s="346"/>
     </row>
     <row r="182" spans="1:22" ht="15.75">
       <c r="A182" s="147" t="s">
@@ -35750,7 +35759,7 @@
       <c r="D182" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E182" s="364" t="s">
+      <c r="E182" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F182" s="146" t="s">
@@ -35795,7 +35804,7 @@
       <c r="U182" s="325">
         <v>2</v>
       </c>
-      <c r="V182" s="365" t="s">
+      <c r="V182" s="346" t="s">
         <v>707</v>
       </c>
     </row>
@@ -35812,7 +35821,7 @@
       <c r="D183" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E183" s="364" t="s">
+      <c r="E183" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F183" s="146" t="s">
@@ -35857,7 +35866,7 @@
       <c r="U183" s="325">
         <v>3</v>
       </c>
-      <c r="V183" s="365"/>
+      <c r="V183" s="346"/>
     </row>
     <row r="184" spans="1:22" ht="15.75">
       <c r="A184" s="147" t="s">
@@ -35872,7 +35881,7 @@
       <c r="D184" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="364" t="s">
+      <c r="E184" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F184" s="146" t="s">
@@ -35917,7 +35926,7 @@
       <c r="U184" s="325">
         <v>4</v>
       </c>
-      <c r="V184" s="365"/>
+      <c r="V184" s="346"/>
     </row>
     <row r="185" spans="1:22" ht="31.5">
       <c r="A185" s="147" t="s">
@@ -35932,7 +35941,7 @@
       <c r="D185" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E185" s="364" t="s">
+      <c r="E185" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F185" s="146" t="s">
@@ -35975,7 +35984,7 @@
         <v>28</v>
       </c>
       <c r="U185" s="210"/>
-      <c r="V185" s="365"/>
+      <c r="V185" s="346"/>
     </row>
     <row r="186" spans="1:22" ht="15.75">
       <c r="A186" s="147" t="s">
@@ -35990,7 +35999,7 @@
       <c r="D186" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E186" s="364" t="s">
+      <c r="E186" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F186" s="146" t="s">
@@ -36000,14 +36009,14 @@
         <v>166</v>
       </c>
       <c r="H186" s="148"/>
-      <c r="I186" s="232">
-        <v>20</v>
+      <c r="I186" s="347">
+        <v>1000</v>
       </c>
       <c r="J186" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K186" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L186" s="318" t="s">
         <v>19</v>
@@ -36033,7 +36042,7 @@
         <v>1000</v>
       </c>
       <c r="U186" s="210"/>
-      <c r="V186" s="365"/>
+      <c r="V186" s="346"/>
     </row>
     <row r="187" spans="1:22" ht="15.75">
       <c r="A187" s="147" t="s">
@@ -36048,7 +36057,7 @@
       <c r="D187" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="E187" s="364" t="s">
+      <c r="E187" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F187" s="146" t="s">
@@ -36089,7 +36098,7 @@
         <v>574</v>
       </c>
       <c r="U187" s="210"/>
-      <c r="V187" s="365"/>
+      <c r="V187" s="346"/>
     </row>
     <row r="188" spans="1:22" ht="15.75">
       <c r="A188" s="147" t="s">
@@ -36104,7 +36113,7 @@
       <c r="D188" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E188" s="364" t="s">
+      <c r="E188" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F188" s="146" t="s">
@@ -36163,7 +36172,7 @@
       <c r="D189" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E189" s="364" t="s">
+      <c r="E189" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F189" s="146" t="s">
@@ -36222,7 +36231,7 @@
       <c r="D190" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E190" s="364" t="s">
+      <c r="E190" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F190" s="146" t="s">
@@ -36281,7 +36290,7 @@
       <c r="D191" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E191" s="364" t="s">
+      <c r="E191" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F191" s="146" t="s">
@@ -36338,7 +36347,7 @@
       <c r="D192" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E192" s="364" t="s">
+      <c r="E192" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F192" s="146" t="s">
@@ -36348,14 +36357,14 @@
         <v>169</v>
       </c>
       <c r="H192" s="148"/>
-      <c r="I192" s="232">
-        <v>20</v>
+      <c r="I192" s="347">
+        <v>1000</v>
       </c>
       <c r="J192" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K192" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L192" s="318" t="s">
         <v>19</v>
@@ -36395,7 +36404,7 @@
       <c r="D193" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="E193" s="364" t="s">
+      <c r="E193" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F193" s="146" t="s">
@@ -36450,7 +36459,7 @@
       <c r="D194" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E194" s="364" t="s">
+      <c r="E194" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F194" s="146" t="s">
@@ -36509,7 +36518,7 @@
       <c r="D195" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E195" s="364" t="s">
+      <c r="E195" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F195" s="146" t="s">
@@ -36568,7 +36577,7 @@
       <c r="D196" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E196" s="364" t="s">
+      <c r="E196" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F196" s="146" t="s">
@@ -36627,7 +36636,7 @@
       <c r="D197" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E197" s="364" t="s">
+      <c r="E197" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F197" s="146" t="s">
@@ -36684,7 +36693,7 @@
       <c r="D198" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E198" s="364" t="s">
+      <c r="E198" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F198" s="146" t="s">
@@ -36694,14 +36703,14 @@
         <v>172</v>
       </c>
       <c r="H198" s="148"/>
-      <c r="I198" s="232">
-        <v>20</v>
+      <c r="I198" s="347">
+        <v>1000</v>
       </c>
       <c r="J198" s="318" t="s">
         <v>598</v>
       </c>
       <c r="K198" s="148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L198" s="318" t="s">
         <v>19</v>
@@ -36741,7 +36750,7 @@
       <c r="D199" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E199" s="364" t="s">
+      <c r="E199" s="345" t="s">
         <v>32</v>
       </c>
       <c r="F199" s="146" t="s">
@@ -39635,12 +39644,12 @@
       <c r="D1" s="126" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="353" t="s">
+      <c r="E1" s="358" t="s">
         <v>611</v>
       </c>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="355"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="360"/>
       <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -40271,14 +40280,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="356" t="s">
+      <c r="F1" s="361" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -40958,19 +40967,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="358" t="s">
+      <c r="A6" s="363" t="s">
         <v>689</v>
       </c>
-      <c r="B6" s="358" t="s">
+      <c r="B6" s="363" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="358" t="s">
+      <c r="C6" s="363" t="s">
         <v>676</v>
       </c>
-      <c r="D6" s="360" t="s">
+      <c r="D6" s="365" t="s">
         <v>690</v>
       </c>
-      <c r="E6" s="361" t="s">
+      <c r="E6" s="366" t="s">
         <v>618</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -40982,11 +40991,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="359"/>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
+      <c r="A7" s="364"/>
+      <c r="B7" s="364"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="364"/>
+      <c r="E7" s="364"/>
       <c r="F7" s="61" t="s">
         <v>692</v>
       </c>
@@ -41091,14 +41100,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="343" t="s">
+      <c r="F1" s="348" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="345"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="350"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -41116,7 +41125,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="351" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -41167,7 +41176,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="347"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -41215,7 +41224,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="348"/>
+      <c r="A4" s="353"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -51502,14 +51511,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="349" t="s">
+      <c r="I1" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="350"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -60581,6 +60590,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -60841,18 +60862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -60863,6 +60872,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{887FAF34-80BB-48BB-86C2-0B670D773116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60881,17 +60901,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>

--- a/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
+++ b/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C416572B-8C2C-4D32-8CAC-823E3803913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E355B-6DC3-4A80-9D43-140D5160806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'EndPoints AUTH - NO Probar (50)'!$A$1:$U$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'EndPoints AUTH - Probar (41)'!$A$1:$T$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Parámetros Auth'!$A$1:$U$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Parámetros Auth NUEVO'!$B$1:$W$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Parámetros Auth NUEVO'!$A$1:$W$247</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Parámetros Auth NUEVO (AT)'!$A$1:$U$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Parámetros Auth NUEVO (GR)'!$A$1:$U$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Parámetros Auth NUEVO (JL)'!$A$1:$U$55</definedName>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11820" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11958" uniqueCount="955">
   <si>
     <t>RUTA DE EJEMPLO DE EJECUCIÓN DE TIPO POST</t>
   </si>
@@ -3377,17 +3377,431 @@
   <si>
     <t>CP108</t>
   </si>
+  <si>
+    <t>CP109</t>
+  </si>
+  <si>
+    <t>CP110</t>
+  </si>
+  <si>
+    <t>CP111</t>
+  </si>
+  <si>
+    <t>CP112</t>
+  </si>
+  <si>
+    <t>CP113</t>
+  </si>
+  <si>
+    <t>CP114</t>
+  </si>
+  <si>
+    <t>CP115</t>
+  </si>
+  <si>
+    <t>CP116</t>
+  </si>
+  <si>
+    <t>CP117</t>
+  </si>
+  <si>
+    <t>CP118</t>
+  </si>
+  <si>
+    <t>CP119</t>
+  </si>
+  <si>
+    <t>CP120</t>
+  </si>
+  <si>
+    <t>CP121</t>
+  </si>
+  <si>
+    <t>CP122</t>
+  </si>
+  <si>
+    <t>CP123</t>
+  </si>
+  <si>
+    <t>CP124</t>
+  </si>
+  <si>
+    <t>CP125</t>
+  </si>
+  <si>
+    <t>CP126</t>
+  </si>
+  <si>
+    <t>CP127</t>
+  </si>
+  <si>
+    <t>CP128</t>
+  </si>
+  <si>
+    <t>CP129</t>
+  </si>
+  <si>
+    <t>CP130</t>
+  </si>
+  <si>
+    <t>CP131</t>
+  </si>
+  <si>
+    <t>CP132</t>
+  </si>
+  <si>
+    <t>CP133</t>
+  </si>
+  <si>
+    <t>CP134</t>
+  </si>
+  <si>
+    <t>CP135</t>
+  </si>
+  <si>
+    <t>CP136</t>
+  </si>
+  <si>
+    <t>CP137</t>
+  </si>
+  <si>
+    <t>CP138</t>
+  </si>
+  <si>
+    <t>CP139</t>
+  </si>
+  <si>
+    <t>CP140</t>
+  </si>
+  <si>
+    <t>CP141</t>
+  </si>
+  <si>
+    <t>CP142</t>
+  </si>
+  <si>
+    <t>CP143</t>
+  </si>
+  <si>
+    <t>CP144</t>
+  </si>
+  <si>
+    <t>CP145</t>
+  </si>
+  <si>
+    <t>CP146</t>
+  </si>
+  <si>
+    <t>CP147</t>
+  </si>
+  <si>
+    <t>CP148</t>
+  </si>
+  <si>
+    <t>CP149</t>
+  </si>
+  <si>
+    <t>CP150</t>
+  </si>
+  <si>
+    <t>CP151</t>
+  </si>
+  <si>
+    <t>CP152</t>
+  </si>
+  <si>
+    <t>CP153</t>
+  </si>
+  <si>
+    <t>CP154</t>
+  </si>
+  <si>
+    <t>CP155</t>
+  </si>
+  <si>
+    <t>CP156</t>
+  </si>
+  <si>
+    <t>CP157</t>
+  </si>
+  <si>
+    <t>CP158</t>
+  </si>
+  <si>
+    <t>CP159</t>
+  </si>
+  <si>
+    <t>CP160</t>
+  </si>
+  <si>
+    <t>CP161</t>
+  </si>
+  <si>
+    <t>CP162</t>
+  </si>
+  <si>
+    <t>CP163</t>
+  </si>
+  <si>
+    <t>CP164</t>
+  </si>
+  <si>
+    <t>CP165</t>
+  </si>
+  <si>
+    <t>CP166</t>
+  </si>
+  <si>
+    <t>CP167</t>
+  </si>
+  <si>
+    <t>CP168</t>
+  </si>
+  <si>
+    <t>CP169</t>
+  </si>
+  <si>
+    <t>CP170</t>
+  </si>
+  <si>
+    <t>CP171</t>
+  </si>
+  <si>
+    <t>CP172</t>
+  </si>
+  <si>
+    <t>CP173</t>
+  </si>
+  <si>
+    <t>CP174</t>
+  </si>
+  <si>
+    <t>CP175</t>
+  </si>
+  <si>
+    <t>CP176</t>
+  </si>
+  <si>
+    <t>CP177</t>
+  </si>
+  <si>
+    <t>CP178</t>
+  </si>
+  <si>
+    <t>CP179</t>
+  </si>
+  <si>
+    <t>CP180</t>
+  </si>
+  <si>
+    <t>CP181</t>
+  </si>
+  <si>
+    <t>CP182</t>
+  </si>
+  <si>
+    <t>CP183</t>
+  </si>
+  <si>
+    <t>CP184</t>
+  </si>
+  <si>
+    <t>CP185</t>
+  </si>
+  <si>
+    <t>CP186</t>
+  </si>
+  <si>
+    <t>CP187</t>
+  </si>
+  <si>
+    <t>CP188</t>
+  </si>
+  <si>
+    <t>CP189</t>
+  </si>
+  <si>
+    <t>CP190</t>
+  </si>
+  <si>
+    <t>CP191</t>
+  </si>
+  <si>
+    <t>CP192</t>
+  </si>
+  <si>
+    <t>CP193</t>
+  </si>
+  <si>
+    <t>CP194</t>
+  </si>
+  <si>
+    <t>CP195</t>
+  </si>
+  <si>
+    <t>CP196</t>
+  </si>
+  <si>
+    <t>CP197</t>
+  </si>
+  <si>
+    <t>CP198</t>
+  </si>
+  <si>
+    <t>CP199</t>
+  </si>
+  <si>
+    <t>CP200</t>
+  </si>
+  <si>
+    <t>CP201</t>
+  </si>
+  <si>
+    <t>CP202</t>
+  </si>
+  <si>
+    <t>CP203</t>
+  </si>
+  <si>
+    <t>CP204</t>
+  </si>
+  <si>
+    <t>CP205</t>
+  </si>
+  <si>
+    <t>CP206</t>
+  </si>
+  <si>
+    <t>CP207</t>
+  </si>
+  <si>
+    <t>CP208</t>
+  </si>
+  <si>
+    <t>CP209</t>
+  </si>
+  <si>
+    <t>CP210</t>
+  </si>
+  <si>
+    <t>CP211</t>
+  </si>
+  <si>
+    <t>CP212</t>
+  </si>
+  <si>
+    <t>CP213</t>
+  </si>
+  <si>
+    <t>CP214</t>
+  </si>
+  <si>
+    <t>CP215</t>
+  </si>
+  <si>
+    <t>CP216</t>
+  </si>
+  <si>
+    <t>CP217</t>
+  </si>
+  <si>
+    <t>CP218</t>
+  </si>
+  <si>
+    <t>CP219</t>
+  </si>
+  <si>
+    <t>CP220</t>
+  </si>
+  <si>
+    <t>CP221</t>
+  </si>
+  <si>
+    <t>CP222</t>
+  </si>
+  <si>
+    <t>CP223</t>
+  </si>
+  <si>
+    <t>CP224</t>
+  </si>
+  <si>
+    <t>CP225</t>
+  </si>
+  <si>
+    <t>CP226</t>
+  </si>
+  <si>
+    <t>CP227</t>
+  </si>
+  <si>
+    <t>CP228</t>
+  </si>
+  <si>
+    <t>CP229</t>
+  </si>
+  <si>
+    <t>CP230</t>
+  </si>
+  <si>
+    <t>CP231</t>
+  </si>
+  <si>
+    <t>CP232</t>
+  </si>
+  <si>
+    <t>CP233</t>
+  </si>
+  <si>
+    <t>CP234</t>
+  </si>
+  <si>
+    <t>CP235</t>
+  </si>
+  <si>
+    <t>CP236</t>
+  </si>
+  <si>
+    <t>CP237</t>
+  </si>
+  <si>
+    <t>CP238</t>
+  </si>
+  <si>
+    <t>CP239</t>
+  </si>
+  <si>
+    <t>CP240</t>
+  </si>
+  <si>
+    <t>CP241</t>
+  </si>
+  <si>
+    <t>CP242</t>
+  </si>
+  <si>
+    <t>CP243</t>
+  </si>
+  <si>
+    <t>CP244</t>
+  </si>
+  <si>
+    <t>CP245</t>
+  </si>
+  <si>
+    <t>CP246</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3796,6 +4210,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4291,7 +4711,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -4627,7 +5047,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4797,7 +5217,7 @@
     <xf numFmtId="9" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4853,7 +5273,7 @@
     <xf numFmtId="9" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4865,7 +5285,7 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4889,7 +5309,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5036,13 +5456,13 @@
     <xf numFmtId="9" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5093,7 +5513,7 @@
     <xf numFmtId="0" fontId="42" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5129,13 +5549,13 @@
     <xf numFmtId="0" fontId="53" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
@@ -5192,6 +5612,9 @@
     <xf numFmtId="0" fontId="30" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5246,9 +5669,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10309,14 +10729,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="354" t="s">
+      <c r="I1" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -13195,14 +13615,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="356" t="s">
+      <c r="I1" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -16002,14 +16422,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="354" t="s">
+      <c r="I1" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -19071,14 +19491,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="354" t="s">
+      <c r="I1" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -22254,14 +22674,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="354" t="s">
+      <c r="I1" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -25173,12 +25593,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -25235,14 +25654,14 @@
       <c r="I1" s="247" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="358" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
-      <c r="N1" s="357"/>
-      <c r="O1" s="357"/>
+      <c r="K1" s="358"/>
+      <c r="L1" s="358"/>
+      <c r="M1" s="358"/>
+      <c r="N1" s="358"/>
+      <c r="O1" s="358"/>
       <c r="P1" s="249" t="s">
         <v>9</v>
       </c>
@@ -25265,7 +25684,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" hidden="1">
+    <row r="2" spans="1:23" ht="15.75">
       <c r="A2" t="s">
         <v>709</v>
       </c>
@@ -25330,7 +25749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" hidden="1">
+    <row r="3" spans="1:23" ht="15.75">
       <c r="A3" t="s">
         <v>710</v>
       </c>
@@ -25395,7 +25814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" hidden="1">
+    <row r="4" spans="1:23" ht="15.75">
       <c r="A4" t="s">
         <v>711</v>
       </c>
@@ -25523,7 +25942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" hidden="1">
+    <row r="6" spans="1:23" ht="15.75">
       <c r="A6" t="s">
         <v>713</v>
       </c>
@@ -25586,7 +26005,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" hidden="1">
+    <row r="7" spans="1:23" ht="15.75">
       <c r="A7" t="s">
         <v>714</v>
       </c>
@@ -25612,13 +26031,13 @@
         <v>82</v>
       </c>
       <c r="I7" s="214"/>
-      <c r="J7" s="367">
+      <c r="J7" s="348">
         <v>100</v>
       </c>
       <c r="K7" s="318" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="367">
+      <c r="L7" s="348">
         <v>60</v>
       </c>
       <c r="M7" s="318" t="s">
@@ -25647,7 +26066,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" hidden="1">
+    <row r="8" spans="1:23" ht="15.75">
       <c r="A8" t="s">
         <v>715</v>
       </c>
@@ -25712,7 +26131,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" hidden="1">
+    <row r="9" spans="1:23" ht="15.75">
       <c r="A9" t="s">
         <v>716</v>
       </c>
@@ -25777,7 +26196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" hidden="1">
+    <row r="10" spans="1:23" ht="15.75">
       <c r="A10" t="s">
         <v>717</v>
       </c>
@@ -25905,7 +26324,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" hidden="1">
+    <row r="12" spans="1:23" ht="15.75">
       <c r="A12" t="s">
         <v>719</v>
       </c>
@@ -25968,7 +26387,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" hidden="1">
+    <row r="13" spans="1:23" ht="15.75">
       <c r="A13" t="s">
         <v>720</v>
       </c>
@@ -26029,7 +26448,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" hidden="1">
+    <row r="14" spans="1:23" ht="15.75">
       <c r="A14" t="s">
         <v>721</v>
       </c>
@@ -26092,7 +26511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" hidden="1">
+    <row r="15" spans="1:23" ht="15.75">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -26157,7 +26576,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" hidden="1">
+    <row r="16" spans="1:23" ht="15.75">
       <c r="A16" t="s">
         <v>723</v>
       </c>
@@ -26222,7 +26641,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" hidden="1">
+    <row r="17" spans="1:23" ht="15.75">
       <c r="A17" t="s">
         <v>724</v>
       </c>
@@ -26350,7 +26769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" hidden="1">
+    <row r="19" spans="1:23" ht="15.75">
       <c r="A19" t="s">
         <v>726</v>
       </c>
@@ -26413,7 +26832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="78.75" hidden="1">
+    <row r="20" spans="1:23" ht="78.75">
       <c r="A20" t="s">
         <v>727</v>
       </c>
@@ -26476,7 +26895,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="78.75" hidden="1">
+    <row r="21" spans="1:23" ht="78.75">
       <c r="A21" t="s">
         <v>728</v>
       </c>
@@ -26539,7 +26958,7 @@
       </c>
       <c r="W21" s="346"/>
     </row>
-    <row r="22" spans="1:23" ht="78.75" hidden="1">
+    <row r="22" spans="1:23" ht="78.75">
       <c r="A22" t="s">
         <v>729</v>
       </c>
@@ -26602,7 +27021,7 @@
       </c>
       <c r="W22" s="346"/>
     </row>
-    <row r="23" spans="1:23" ht="78.75" hidden="1">
+    <row r="23" spans="1:23" ht="78.75">
       <c r="A23" t="s">
         <v>730</v>
       </c>
@@ -26726,7 +27145,7 @@
       <c r="V24" s="235"/>
       <c r="W24" s="346"/>
     </row>
-    <row r="25" spans="1:23" ht="78.75" hidden="1">
+    <row r="25" spans="1:23" ht="78.75">
       <c r="A25" t="s">
         <v>732</v>
       </c>
@@ -26787,7 +27206,7 @@
       <c r="V25" s="235"/>
       <c r="W25" s="346"/>
     </row>
-    <row r="26" spans="1:23" ht="78.75" hidden="1">
+    <row r="26" spans="1:23" ht="78.75">
       <c r="A26" t="s">
         <v>733</v>
       </c>
@@ -26850,7 +27269,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="78.75" hidden="1">
+    <row r="27" spans="1:23" ht="78.75">
       <c r="A27" t="s">
         <v>734</v>
       </c>
@@ -26913,7 +27332,7 @@
       </c>
       <c r="W27" s="346"/>
     </row>
-    <row r="28" spans="1:23" ht="78.75" hidden="1">
+    <row r="28" spans="1:23" ht="78.75">
       <c r="A28" t="s">
         <v>735</v>
       </c>
@@ -26976,7 +27395,7 @@
       </c>
       <c r="W28" s="346"/>
     </row>
-    <row r="29" spans="1:23" ht="78.75" hidden="1">
+    <row r="29" spans="1:23" ht="78.75">
       <c r="A29" t="s">
         <v>736</v>
       </c>
@@ -27100,7 +27519,7 @@
       <c r="V30" s="235"/>
       <c r="W30" s="346"/>
     </row>
-    <row r="31" spans="1:23" ht="78.75" hidden="1">
+    <row r="31" spans="1:23" ht="78.75">
       <c r="A31" t="s">
         <v>738</v>
       </c>
@@ -27161,7 +27580,7 @@
       <c r="V31" s="235"/>
       <c r="W31" s="346"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" hidden="1">
+    <row r="32" spans="1:23" ht="15.75">
       <c r="A32" t="s">
         <v>739</v>
       </c>
@@ -27221,7 +27640,7 @@
       </c>
       <c r="V32" s="235"/>
     </row>
-    <row r="33" spans="1:22" ht="15.75" hidden="1">
+    <row r="33" spans="1:22" ht="15.75">
       <c r="A33" t="s">
         <v>740</v>
       </c>
@@ -27283,7 +27702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" hidden="1">
+    <row r="34" spans="1:22" ht="15.75">
       <c r="A34" t="s">
         <v>741</v>
       </c>
@@ -27345,7 +27764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" hidden="1">
+    <row r="35" spans="1:22" ht="15.75">
       <c r="A35" t="s">
         <v>742</v>
       </c>
@@ -27467,7 +27886,7 @@
       </c>
       <c r="V36" s="235"/>
     </row>
-    <row r="37" spans="1:22" ht="15.75" hidden="1">
+    <row r="37" spans="1:22" ht="15.75">
       <c r="A37" t="s">
         <v>744</v>
       </c>
@@ -27527,7 +27946,7 @@
       </c>
       <c r="V37" s="235"/>
     </row>
-    <row r="38" spans="1:22" s="199" customFormat="1" ht="15.75" hidden="1">
+    <row r="38" spans="1:22" s="199" customFormat="1" ht="15.75">
       <c r="A38" t="s">
         <v>745</v>
       </c>
@@ -27589,7 +28008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" hidden="1">
+    <row r="39" spans="1:22" ht="15.75">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -27651,7 +28070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" hidden="1">
+    <row r="40" spans="1:22" ht="15.75">
       <c r="A40" t="s">
         <v>747</v>
       </c>
@@ -27773,7 +28192,7 @@
       </c>
       <c r="V41" s="235"/>
     </row>
-    <row r="42" spans="1:22" ht="15.75" hidden="1">
+    <row r="42" spans="1:22" ht="15.75">
       <c r="A42" t="s">
         <v>749</v>
       </c>
@@ -27833,7 +28252,7 @@
       </c>
       <c r="V42" s="235"/>
     </row>
-    <row r="43" spans="1:22" ht="15.75" hidden="1">
+    <row r="43" spans="1:22" ht="15.75">
       <c r="A43" t="s">
         <v>750</v>
       </c>
@@ -27891,7 +28310,7 @@
       </c>
       <c r="V43" s="235"/>
     </row>
-    <row r="44" spans="1:22" ht="15.75" hidden="1">
+    <row r="44" spans="1:22" ht="15.75">
       <c r="A44" t="s">
         <v>751</v>
       </c>
@@ -27951,7 +28370,7 @@
       </c>
       <c r="V44" s="235"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" hidden="1">
+    <row r="45" spans="1:22" ht="15.75">
       <c r="A45" t="s">
         <v>752</v>
       </c>
@@ -28013,7 +28432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" hidden="1">
+    <row r="46" spans="1:22" ht="15.75">
       <c r="A46" t="s">
         <v>753</v>
       </c>
@@ -28075,7 +28494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" hidden="1">
+    <row r="47" spans="1:22" ht="15.75">
       <c r="A47" t="s">
         <v>754</v>
       </c>
@@ -28197,7 +28616,7 @@
       </c>
       <c r="V48" s="235"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" hidden="1">
+    <row r="49" spans="1:23" ht="15.75">
       <c r="A49" t="s">
         <v>756</v>
       </c>
@@ -28257,7 +28676,7 @@
       </c>
       <c r="V49" s="235"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" hidden="1">
+    <row r="50" spans="1:23" ht="15.75">
       <c r="A50" t="s">
         <v>757</v>
       </c>
@@ -28319,7 +28738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" hidden="1">
+    <row r="51" spans="1:23" ht="15.75">
       <c r="A51" t="s">
         <v>758</v>
       </c>
@@ -28381,7 +28800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" hidden="1">
+    <row r="52" spans="1:23" ht="15.75">
       <c r="A52" t="s">
         <v>759</v>
       </c>
@@ -28503,7 +28922,7 @@
       </c>
       <c r="V53" s="235"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" hidden="1">
+    <row r="54" spans="1:23" ht="15.75">
       <c r="A54" t="s">
         <v>761</v>
       </c>
@@ -28563,7 +28982,7 @@
       </c>
       <c r="V54" s="235"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" hidden="1">
+    <row r="55" spans="1:23" ht="15.75">
       <c r="A55" t="s">
         <v>762</v>
       </c>
@@ -28621,7 +29040,10 @@
       </c>
       <c r="V55" s="210"/>
     </row>
-    <row r="56" spans="1:23" ht="409.5" hidden="1">
+    <row r="56" spans="1:23" ht="56.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>763</v>
+      </c>
       <c r="B56" s="230" t="s">
         <v>109</v>
       </c>
@@ -28681,7 +29103,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="409.5" hidden="1">
+    <row r="57" spans="1:23" ht="39" customHeight="1">
+      <c r="A57" t="s">
+        <v>764</v>
+      </c>
       <c r="B57" s="230" t="s">
         <v>109</v>
       </c>
@@ -28743,7 +29168,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="409.5" hidden="1">
+    <row r="58" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>765</v>
+      </c>
       <c r="B58" s="230" t="s">
         <v>109</v>
       </c>
@@ -28805,7 +29233,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="409.5" hidden="1">
+    <row r="59" spans="1:23" ht="71.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>766</v>
+      </c>
       <c r="B59" s="230" t="s">
         <v>109</v>
       </c>
@@ -28867,7 +29298,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="409.5" hidden="1">
+    <row r="60" spans="1:23" ht="46.5" customHeight="1">
+      <c r="A60" t="s">
+        <v>767</v>
+      </c>
       <c r="B60" s="230" t="s">
         <v>109</v>
       </c>
@@ -28927,7 +29361,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="409.5" hidden="1">
+    <row r="61" spans="1:23" ht="42.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>768</v>
+      </c>
       <c r="B61" s="230" t="s">
         <v>109</v>
       </c>
@@ -28987,7 +29424,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" hidden="1">
+    <row r="62" spans="1:23" ht="15.75">
+      <c r="A62" t="s">
+        <v>769</v>
+      </c>
       <c r="B62" s="230" t="s">
         <v>109</v>
       </c>
@@ -29047,7 +29487,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" hidden="1">
+    <row r="63" spans="1:23" ht="15.75">
+      <c r="A63" t="s">
+        <v>770</v>
+      </c>
       <c r="B63" s="230" t="s">
         <v>109</v>
       </c>
@@ -29109,7 +29552,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" hidden="1">
+    <row r="64" spans="1:23" ht="15.75">
+      <c r="A64" t="s">
+        <v>771</v>
+      </c>
       <c r="B64" s="230" t="s">
         <v>109</v>
       </c>
@@ -29171,7 +29617,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:23" ht="15.75" hidden="1">
+    <row r="65" spans="1:23" ht="15.75">
+      <c r="A65" t="s">
+        <v>772</v>
+      </c>
       <c r="B65" s="230" t="s">
         <v>109</v>
       </c>
@@ -29233,7 +29682,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="2:23" ht="31.5" hidden="1">
+    <row r="66" spans="1:23" ht="31.5">
+      <c r="A66" t="s">
+        <v>773</v>
+      </c>
       <c r="B66" s="230" t="s">
         <v>109</v>
       </c>
@@ -29293,7 +29745,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="2:23" ht="15.75" hidden="1">
+    <row r="67" spans="1:23" ht="15.75">
+      <c r="A67" t="s">
+        <v>774</v>
+      </c>
       <c r="B67" s="230" t="s">
         <v>109</v>
       </c>
@@ -29353,7 +29808,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="2:23" ht="236.25" hidden="1">
+    <row r="68" spans="1:23" ht="45" customHeight="1">
+      <c r="A68" t="s">
+        <v>775</v>
+      </c>
       <c r="B68" s="234" t="s">
         <v>109</v>
       </c>
@@ -29410,7 +29868,10 @@
       </c>
       <c r="V68" s="235"/>
     </row>
-    <row r="69" spans="2:23" ht="236.25" hidden="1">
+    <row r="69" spans="1:23" ht="55.5" customHeight="1">
+      <c r="A69" t="s">
+        <v>776</v>
+      </c>
       <c r="B69" s="234" t="s">
         <v>109</v>
       </c>
@@ -29469,7 +29930,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:23" ht="236.25" hidden="1">
+    <row r="70" spans="1:23" ht="51" customHeight="1">
+      <c r="A70" t="s">
+        <v>777</v>
+      </c>
       <c r="B70" s="234" t="s">
         <v>109</v>
       </c>
@@ -29528,7 +29992,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:23" ht="236.25" hidden="1">
+    <row r="71" spans="1:23" ht="48" customHeight="1">
+      <c r="A71" t="s">
+        <v>778</v>
+      </c>
       <c r="B71" s="234" t="s">
         <v>109</v>
       </c>
@@ -29587,7 +30054,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:23" ht="236.25" hidden="1">
+    <row r="72" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>779</v>
+      </c>
       <c r="B72" s="234" t="s">
         <v>109</v>
       </c>
@@ -29644,7 +30114,10 @@
       </c>
       <c r="V72" s="235"/>
     </row>
-    <row r="73" spans="2:23" ht="236.25" hidden="1">
+    <row r="73" spans="1:23" ht="47.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>780</v>
+      </c>
       <c r="B73" s="234" t="s">
         <v>109</v>
       </c>
@@ -29701,7 +30174,10 @@
       </c>
       <c r="V73" s="235"/>
     </row>
-    <row r="74" spans="2:23" ht="409.5" hidden="1">
+    <row r="74" spans="1:23" ht="49.5" customHeight="1">
+      <c r="A74" t="s">
+        <v>781</v>
+      </c>
       <c r="B74" s="234" t="s">
         <v>109</v>
       </c>
@@ -29758,7 +30234,10 @@
       </c>
       <c r="V74" s="235"/>
     </row>
-    <row r="75" spans="2:23" ht="409.5" hidden="1">
+    <row r="75" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>782</v>
+      </c>
       <c r="B75" s="234" t="s">
         <v>109</v>
       </c>
@@ -29817,7 +30296,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:23" ht="409.5" hidden="1">
+    <row r="76" spans="1:23" ht="69.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>783</v>
+      </c>
       <c r="B76" s="234" t="s">
         <v>109</v>
       </c>
@@ -29876,7 +30358,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:23" ht="409.5" hidden="1">
+    <row r="77" spans="1:23" ht="59.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>784</v>
+      </c>
       <c r="B77" s="234" t="s">
         <v>109</v>
       </c>
@@ -29935,7 +30420,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:23" ht="409.5" hidden="1">
+    <row r="78" spans="1:23" ht="60" customHeight="1">
+      <c r="A78" t="s">
+        <v>785</v>
+      </c>
       <c r="B78" s="234" t="s">
         <v>109</v>
       </c>
@@ -29992,7 +30480,10 @@
       </c>
       <c r="V78" s="235"/>
     </row>
-    <row r="79" spans="2:23" ht="409.5" hidden="1">
+    <row r="79" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>786</v>
+      </c>
       <c r="B79" s="234" t="s">
         <v>109</v>
       </c>
@@ -30049,7 +30540,10 @@
       </c>
       <c r="V79" s="235"/>
     </row>
-    <row r="80" spans="2:23" ht="15.75" hidden="1">
+    <row r="80" spans="1:23" ht="15.75">
+      <c r="A80" t="s">
+        <v>787</v>
+      </c>
       <c r="B80" s="212" t="s">
         <v>109</v>
       </c>
@@ -30111,7 +30605,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15.75" hidden="1">
+    <row r="81" spans="1:23" ht="15.75">
+      <c r="A81" t="s">
+        <v>788</v>
+      </c>
       <c r="B81" s="212" t="s">
         <v>109</v>
       </c>
@@ -30173,7 +30670,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15.75" hidden="1">
+    <row r="82" spans="1:23" ht="15.75">
+      <c r="A82" t="s">
+        <v>789</v>
+      </c>
       <c r="B82" s="212" t="s">
         <v>109</v>
       </c>
@@ -30235,7 +30735,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="31.5" hidden="1">
+    <row r="83" spans="1:23" ht="31.5">
+      <c r="A83" t="s">
+        <v>790</v>
+      </c>
       <c r="B83" s="212" t="s">
         <v>109</v>
       </c>
@@ -30295,7 +30798,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15.75" hidden="1">
+    <row r="84" spans="1:23" ht="15.75">
+      <c r="A84" t="s">
+        <v>791</v>
+      </c>
       <c r="B84" s="212" t="s">
         <v>109</v>
       </c>
@@ -30319,7 +30825,7 @@
       </c>
       <c r="I84" s="214"/>
       <c r="J84" s="232">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="K84" s="318" t="s">
         <v>598</v>
@@ -30355,7 +30861,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15.75" hidden="1">
+    <row r="85" spans="1:23" ht="15.75">
+      <c r="A85" t="s">
+        <v>792</v>
+      </c>
       <c r="B85" s="212" t="s">
         <v>109</v>
       </c>
@@ -30413,7 +30922,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15.75" hidden="1">
+    <row r="86" spans="1:23" ht="15.75">
+      <c r="A86" t="s">
+        <v>793</v>
+      </c>
       <c r="B86" s="208" t="s">
         <v>109</v>
       </c>
@@ -30474,7 +30986,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15.75" hidden="1">
+    <row r="87" spans="1:23" ht="15.75">
+      <c r="A87" t="s">
+        <v>794</v>
+      </c>
       <c r="B87" s="208" t="s">
         <v>109</v>
       </c>
@@ -30535,7 +31050,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15.75" hidden="1">
+    <row r="88" spans="1:23" ht="15.75">
+      <c r="A88" t="s">
+        <v>795</v>
+      </c>
       <c r="B88" s="208" t="s">
         <v>109</v>
       </c>
@@ -30596,7 +31114,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="31.5" hidden="1">
+    <row r="89" spans="1:23" ht="31.5">
+      <c r="A89" t="s">
+        <v>796</v>
+      </c>
       <c r="B89" s="208" t="s">
         <v>109</v>
       </c>
@@ -30655,7 +31176,10 @@
       </c>
       <c r="V89" s="210"/>
     </row>
-    <row r="90" spans="2:23" ht="15.75" hidden="1">
+    <row r="90" spans="1:23" ht="15.75">
+      <c r="A90" t="s">
+        <v>797</v>
+      </c>
       <c r="B90" s="208" t="s">
         <v>109</v>
       </c>
@@ -30714,7 +31238,10 @@
       </c>
       <c r="V90" s="210"/>
     </row>
-    <row r="91" spans="2:23" ht="15.75" hidden="1">
+    <row r="91" spans="1:23" ht="15.75">
+      <c r="A91" t="s">
+        <v>798</v>
+      </c>
       <c r="B91" s="208" t="s">
         <v>109</v>
       </c>
@@ -30771,7 +31298,10 @@
       </c>
       <c r="V91" s="210"/>
     </row>
-    <row r="92" spans="2:23" ht="15.75" hidden="1">
+    <row r="92" spans="1:23" ht="15.75">
+      <c r="A92" t="s">
+        <v>799</v>
+      </c>
       <c r="B92" s="208" t="s">
         <v>109</v>
       </c>
@@ -30830,7 +31360,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15.75" hidden="1">
+    <row r="93" spans="1:23" ht="15.75">
+      <c r="A93" t="s">
+        <v>800</v>
+      </c>
       <c r="B93" s="208" t="s">
         <v>109</v>
       </c>
@@ -30889,7 +31422,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15.75" hidden="1">
+    <row r="94" spans="1:23" ht="15.75">
+      <c r="A94" t="s">
+        <v>801</v>
+      </c>
       <c r="B94" s="208" t="s">
         <v>109</v>
       </c>
@@ -30948,7 +31484,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="31.5" hidden="1">
+    <row r="95" spans="1:23" ht="31.5">
+      <c r="A95" t="s">
+        <v>802</v>
+      </c>
       <c r="B95" s="208" t="s">
         <v>109</v>
       </c>
@@ -31005,7 +31544,10 @@
       </c>
       <c r="V95" s="210"/>
     </row>
-    <row r="96" spans="2:23" ht="15.75" hidden="1">
+    <row r="96" spans="1:23" ht="15.75">
+      <c r="A96" t="s">
+        <v>803</v>
+      </c>
       <c r="B96" s="208" t="s">
         <v>109</v>
       </c>
@@ -31062,7 +31604,10 @@
       </c>
       <c r="V96" s="210"/>
     </row>
-    <row r="97" spans="2:23" ht="15.75" hidden="1">
+    <row r="97" spans="1:23" ht="15.75">
+      <c r="A97" t="s">
+        <v>804</v>
+      </c>
       <c r="B97" s="208" t="s">
         <v>109</v>
       </c>
@@ -31117,7 +31662,10 @@
       </c>
       <c r="V97" s="210"/>
     </row>
-    <row r="98" spans="2:23" ht="409.5" hidden="1">
+    <row r="98" spans="1:23" ht="409.5">
+      <c r="A98" t="s">
+        <v>805</v>
+      </c>
       <c r="B98" s="234" t="s">
         <v>109</v>
       </c>
@@ -31174,7 +31722,10 @@
       </c>
       <c r="V98" s="235"/>
     </row>
-    <row r="99" spans="2:23" ht="409.5" hidden="1">
+    <row r="99" spans="1:23" ht="409.5">
+      <c r="A99" t="s">
+        <v>806</v>
+      </c>
       <c r="B99" s="234" t="s">
         <v>109</v>
       </c>
@@ -31233,7 +31784,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:23" ht="409.5" hidden="1">
+    <row r="100" spans="1:23" ht="409.5">
+      <c r="A100" t="s">
+        <v>807</v>
+      </c>
       <c r="B100" s="234" t="s">
         <v>109</v>
       </c>
@@ -31292,7 +31846,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:23" ht="409.5" hidden="1">
+    <row r="101" spans="1:23" ht="409.5">
+      <c r="A101" t="s">
+        <v>808</v>
+      </c>
       <c r="B101" s="234" t="s">
         <v>109</v>
       </c>
@@ -31351,7 +31908,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:23" ht="409.5" hidden="1">
+    <row r="102" spans="1:23" ht="409.5">
+      <c r="A102" t="s">
+        <v>809</v>
+      </c>
       <c r="B102" s="234" t="s">
         <v>109</v>
       </c>
@@ -31408,7 +31968,10 @@
       </c>
       <c r="V102" s="235"/>
     </row>
-    <row r="103" spans="2:23" ht="409.5" hidden="1">
+    <row r="103" spans="1:23" ht="409.5">
+      <c r="A103" t="s">
+        <v>810</v>
+      </c>
       <c r="B103" s="234" t="s">
         <v>109</v>
       </c>
@@ -31465,7 +32028,10 @@
       </c>
       <c r="V103" s="235"/>
     </row>
-    <row r="104" spans="2:23" ht="31.5" hidden="1">
+    <row r="104" spans="1:23" ht="31.5">
+      <c r="A104" t="s">
+        <v>811</v>
+      </c>
       <c r="B104" s="282" t="s">
         <v>123</v>
       </c>
@@ -31528,7 +32094,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:23" ht="31.5" hidden="1">
+    <row r="105" spans="1:23" ht="31.5">
+      <c r="A105" t="s">
+        <v>812</v>
+      </c>
       <c r="B105" s="285" t="s">
         <v>123</v>
       </c>
@@ -31591,7 +32160,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:23" ht="31.5" hidden="1">
+    <row r="106" spans="1:23" ht="31.5">
+      <c r="A106" t="s">
+        <v>813</v>
+      </c>
       <c r="B106" s="285" t="s">
         <v>123</v>
       </c>
@@ -31654,7 +32226,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:23" ht="31.5" hidden="1">
+    <row r="107" spans="1:23" ht="31.5">
+      <c r="A107" t="s">
+        <v>814</v>
+      </c>
       <c r="B107" s="285" t="s">
         <v>123</v>
       </c>
@@ -31717,7 +32292,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="2:23" ht="31.5" hidden="1">
+    <row r="108" spans="1:23" ht="31.5">
+      <c r="A108" t="s">
+        <v>815</v>
+      </c>
       <c r="B108" s="285" t="s">
         <v>123</v>
       </c>
@@ -31780,7 +32358,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="109" spans="2:23" ht="31.5" hidden="1">
+    <row r="109" spans="1:23" ht="31.5">
+      <c r="A109" t="s">
+        <v>816</v>
+      </c>
       <c r="B109" s="285" t="s">
         <v>123</v>
       </c>
@@ -31843,7 +32424,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="110" spans="2:23" ht="15.75" hidden="1">
+    <row r="110" spans="1:23" ht="15.75">
+      <c r="A110" t="s">
+        <v>817</v>
+      </c>
       <c r="B110" s="327" t="s">
         <v>123</v>
       </c>
@@ -31909,7 +32493,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="2:23" ht="15.75" hidden="1">
+    <row r="111" spans="1:23" ht="15.75">
+      <c r="A111" t="s">
+        <v>818</v>
+      </c>
       <c r="B111" s="327" t="s">
         <v>123</v>
       </c>
@@ -31975,7 +32562,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="15.75" hidden="1">
+    <row r="112" spans="1:23" ht="15.75">
+      <c r="A112" t="s">
+        <v>819</v>
+      </c>
       <c r="B112" s="327" t="s">
         <v>123</v>
       </c>
@@ -32041,7 +32631,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="113" spans="2:23" ht="31.5" hidden="1">
+    <row r="113" spans="1:23" ht="31.5">
+      <c r="A113" t="s">
+        <v>820</v>
+      </c>
       <c r="B113" s="327" t="s">
         <v>123</v>
       </c>
@@ -32107,7 +32700,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="15.75" hidden="1">
+    <row r="114" spans="1:23" ht="15.75">
+      <c r="A114" t="s">
+        <v>821</v>
+      </c>
       <c r="B114" s="327" t="s">
         <v>123</v>
       </c>
@@ -32173,7 +32769,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="115" spans="2:23" ht="15.75" hidden="1">
+    <row r="115" spans="1:23" ht="15.75">
+      <c r="A115" t="s">
+        <v>822</v>
+      </c>
       <c r="B115" s="327" t="s">
         <v>123</v>
       </c>
@@ -32239,7 +32838,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="116" spans="2:23" ht="15.75" hidden="1">
+    <row r="116" spans="1:23" ht="15.75">
+      <c r="A116" t="s">
+        <v>823</v>
+      </c>
       <c r="B116" s="285" t="s">
         <v>123</v>
       </c>
@@ -32302,7 +32904,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:23" ht="15.75" hidden="1">
+    <row r="117" spans="1:23" ht="15.75">
+      <c r="A117" t="s">
+        <v>824</v>
+      </c>
       <c r="B117" s="285" t="s">
         <v>123</v>
       </c>
@@ -32365,7 +32970,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:23" ht="15.75" hidden="1">
+    <row r="118" spans="1:23" ht="15.75">
+      <c r="A118" t="s">
+        <v>825</v>
+      </c>
       <c r="B118" s="285" t="s">
         <v>123</v>
       </c>
@@ -32428,7 +33036,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:23" ht="31.5" hidden="1">
+    <row r="119" spans="1:23" ht="31.5">
+      <c r="A119" t="s">
+        <v>826</v>
+      </c>
       <c r="B119" s="285" t="s">
         <v>123</v>
       </c>
@@ -32491,7 +33102,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="120" spans="2:23" ht="15.75" hidden="1">
+    <row r="120" spans="1:23" ht="15.75">
+      <c r="A120" t="s">
+        <v>827</v>
+      </c>
       <c r="B120" s="285" t="s">
         <v>123</v>
       </c>
@@ -32554,7 +33168,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="121" spans="2:23" ht="15.75" hidden="1">
+    <row r="121" spans="1:23" ht="15.75">
+      <c r="A121" t="s">
+        <v>828</v>
+      </c>
       <c r="B121" s="285" t="s">
         <v>123</v>
       </c>
@@ -32617,7 +33234,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="2:23" ht="15.75" hidden="1">
+    <row r="122" spans="1:23" ht="15.75">
+      <c r="A122" t="s">
+        <v>829</v>
+      </c>
       <c r="B122" s="285" t="s">
         <v>123</v>
       </c>
@@ -32680,7 +33300,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:23" ht="15.75" hidden="1">
+    <row r="123" spans="1:23" ht="15.75">
+      <c r="A123" t="s">
+        <v>830</v>
+      </c>
       <c r="B123" s="285" t="s">
         <v>123</v>
       </c>
@@ -32743,7 +33366,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:23" ht="15.75" hidden="1">
+    <row r="124" spans="1:23" ht="15.75">
+      <c r="A124" t="s">
+        <v>831</v>
+      </c>
       <c r="B124" s="285" t="s">
         <v>123</v>
       </c>
@@ -32806,7 +33432,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:23" ht="31.5" hidden="1">
+    <row r="125" spans="1:23" ht="31.5">
+      <c r="A125" t="s">
+        <v>832</v>
+      </c>
       <c r="B125" s="285" t="s">
         <v>123</v>
       </c>
@@ -32869,7 +33498,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="2:23" ht="15.75" hidden="1">
+    <row r="126" spans="1:23" ht="15.75">
+      <c r="A126" t="s">
+        <v>833</v>
+      </c>
       <c r="B126" s="285" t="s">
         <v>123</v>
       </c>
@@ -32932,7 +33564,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="127" spans="2:23" ht="15.75" hidden="1">
+    <row r="127" spans="1:23" ht="15.75">
+      <c r="A127" t="s">
+        <v>834</v>
+      </c>
       <c r="B127" s="285" t="s">
         <v>123</v>
       </c>
@@ -32995,7 +33630,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="2:23" ht="31.5" hidden="1">
+    <row r="128" spans="1:23" ht="31.5">
+      <c r="A128" t="s">
+        <v>835</v>
+      </c>
       <c r="B128" s="285" t="s">
         <v>123</v>
       </c>
@@ -33058,7 +33696,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:22" ht="31.5" hidden="1">
+    <row r="129" spans="1:22" ht="31.5">
+      <c r="A129" t="s">
+        <v>836</v>
+      </c>
       <c r="B129" s="285" t="s">
         <v>123</v>
       </c>
@@ -33121,7 +33762,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:22" ht="31.5" hidden="1">
+    <row r="130" spans="1:22" ht="31.5">
+      <c r="A130" t="s">
+        <v>837</v>
+      </c>
       <c r="B130" s="285" t="s">
         <v>123</v>
       </c>
@@ -33184,7 +33828,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:22" ht="31.5" hidden="1">
+    <row r="131" spans="1:22" ht="31.5">
+      <c r="A131" t="s">
+        <v>838</v>
+      </c>
       <c r="B131" s="285" t="s">
         <v>123</v>
       </c>
@@ -33247,7 +33894,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="2:22" ht="31.5" hidden="1">
+    <row r="132" spans="1:22" ht="31.5">
+      <c r="A132" t="s">
+        <v>839</v>
+      </c>
       <c r="B132" s="285" t="s">
         <v>123</v>
       </c>
@@ -33310,7 +33960,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="2:22" ht="31.5" hidden="1">
+    <row r="133" spans="1:22" ht="31.5">
+      <c r="A133" t="s">
+        <v>840</v>
+      </c>
       <c r="B133" s="285" t="s">
         <v>123</v>
       </c>
@@ -33373,7 +34026,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="2:22" ht="15.75" hidden="1">
+    <row r="134" spans="1:22" ht="15.75">
+      <c r="A134" t="s">
+        <v>841</v>
+      </c>
       <c r="B134" s="285" t="s">
         <v>123</v>
       </c>
@@ -33436,7 +34092,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:22" ht="15.75" hidden="1">
+    <row r="135" spans="1:22" ht="15.75">
+      <c r="A135" t="s">
+        <v>842</v>
+      </c>
       <c r="B135" s="285" t="s">
         <v>123</v>
       </c>
@@ -33499,7 +34158,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="2:22" ht="15.75" hidden="1">
+    <row r="136" spans="1:22" ht="15.75">
+      <c r="A136" t="s">
+        <v>843</v>
+      </c>
       <c r="B136" s="285" t="s">
         <v>123</v>
       </c>
@@ -33562,7 +34224,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:22" ht="31.5" hidden="1">
+    <row r="137" spans="1:22" ht="31.5">
+      <c r="A137" t="s">
+        <v>844</v>
+      </c>
       <c r="B137" s="285" t="s">
         <v>123</v>
       </c>
@@ -33625,7 +34290,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="2:22" ht="15.75" hidden="1">
+    <row r="138" spans="1:22" ht="15.75">
+      <c r="A138" t="s">
+        <v>845</v>
+      </c>
       <c r="B138" s="285" t="s">
         <v>123</v>
       </c>
@@ -33688,7 +34356,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="2:22" ht="15.75" hidden="1">
+    <row r="139" spans="1:22" ht="15.75">
+      <c r="A139" t="s">
+        <v>846</v>
+      </c>
       <c r="B139" s="285" t="s">
         <v>123</v>
       </c>
@@ -33751,7 +34422,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="140" spans="2:22" ht="15.75" hidden="1">
+    <row r="140" spans="1:22" ht="15.75">
+      <c r="A140" t="s">
+        <v>847</v>
+      </c>
       <c r="B140" s="285" t="s">
         <v>123</v>
       </c>
@@ -33814,7 +34488,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:22" ht="15.75" hidden="1">
+    <row r="141" spans="1:22" ht="15.75">
+      <c r="A141" t="s">
+        <v>848</v>
+      </c>
       <c r="B141" s="285" t="s">
         <v>123</v>
       </c>
@@ -33877,7 +34554,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:22" ht="15.75" hidden="1">
+    <row r="142" spans="1:22" ht="15.75">
+      <c r="A142" t="s">
+        <v>849</v>
+      </c>
       <c r="B142" s="285" t="s">
         <v>123</v>
       </c>
@@ -33940,7 +34620,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:22" ht="31.5" hidden="1">
+    <row r="143" spans="1:22" ht="31.5">
+      <c r="A143" t="s">
+        <v>850</v>
+      </c>
       <c r="B143" s="285" t="s">
         <v>123</v>
       </c>
@@ -34003,7 +34686,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="144" spans="2:22" ht="15.75" hidden="1">
+    <row r="144" spans="1:22" ht="15.75">
+      <c r="A144" t="s">
+        <v>851</v>
+      </c>
       <c r="B144" s="285" t="s">
         <v>123</v>
       </c>
@@ -34066,7 +34752,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.75" hidden="1">
+    <row r="145" spans="1:23" ht="15.75">
+      <c r="A145" t="s">
+        <v>852</v>
+      </c>
       <c r="B145" s="285" t="s">
         <v>123</v>
       </c>
@@ -34129,9 +34818,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.75" hidden="1">
+    <row r="146" spans="1:23" ht="15.75">
       <c r="A146" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="B146" s="147" t="s">
         <v>139</v>
@@ -34191,9 +34880,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.75" hidden="1">
+    <row r="147" spans="1:23" ht="15.75">
       <c r="A147" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="B147" s="147" t="s">
         <v>139</v>
@@ -34253,9 +34942,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.75" hidden="1">
+    <row r="148" spans="1:23" ht="15.75">
       <c r="A148" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="B148" s="147" t="s">
         <v>139</v>
@@ -34317,7 +35006,7 @@
     </row>
     <row r="149" spans="1:23" ht="31.5">
       <c r="A149" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="B149" s="147" t="s">
         <v>139</v>
@@ -34375,9 +35064,9 @@
       </c>
       <c r="V149" s="210"/>
     </row>
-    <row r="150" spans="1:23" ht="15.75" hidden="1">
+    <row r="150" spans="1:23" ht="15.75">
       <c r="A150" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="B150" s="147" t="s">
         <v>139</v>
@@ -34435,9 +35124,9 @@
       </c>
       <c r="V150" s="210"/>
     </row>
-    <row r="151" spans="1:23" ht="15.75" hidden="1">
+    <row r="151" spans="1:23" ht="15.75">
       <c r="A151" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="B151" s="147" t="s">
         <v>139</v>
@@ -34461,13 +35150,13 @@
         <v>592</v>
       </c>
       <c r="I151" s="148"/>
-      <c r="J151" s="367">
+      <c r="J151" s="348">
         <v>100</v>
       </c>
       <c r="K151" s="318" t="s">
         <v>18</v>
       </c>
-      <c r="L151" s="367">
+      <c r="L151" s="348">
         <v>60</v>
       </c>
       <c r="M151" s="318" t="s">
@@ -34493,9 +35182,9 @@
       </c>
       <c r="V151" s="210"/>
     </row>
-    <row r="152" spans="1:23" ht="15.75" hidden="1">
+    <row r="152" spans="1:23" ht="15.75">
       <c r="A152" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="B152" s="147" t="s">
         <v>139</v>
@@ -34558,9 +35247,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.75" hidden="1">
+    <row r="153" spans="1:23" ht="15.75">
       <c r="A153" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="B153" s="147" t="s">
         <v>139</v>
@@ -34621,9 +35310,9 @@
       </c>
       <c r="W153" s="346"/>
     </row>
-    <row r="154" spans="1:23" ht="15.75" hidden="1">
+    <row r="154" spans="1:23" ht="15.75">
       <c r="A154" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="B154" s="147" t="s">
         <v>139</v>
@@ -34686,7 +35375,7 @@
     </row>
     <row r="155" spans="1:23" ht="31.5">
       <c r="A155" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="B155" s="147" t="s">
         <v>139</v>
@@ -34745,9 +35434,9 @@
       <c r="V155" s="210"/>
       <c r="W155" s="346"/>
     </row>
-    <row r="156" spans="1:23" ht="15.75" hidden="1">
+    <row r="156" spans="1:23" ht="15.75">
       <c r="A156" t="s">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="B156" s="147" t="s">
         <v>139</v>
@@ -34806,9 +35495,9 @@
       <c r="V156" s="210"/>
       <c r="W156" s="346"/>
     </row>
-    <row r="157" spans="1:23" ht="15.75" hidden="1">
+    <row r="157" spans="1:23" ht="15.75">
       <c r="A157" t="s">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="B157" s="147" t="s">
         <v>139</v>
@@ -34865,9 +35554,9 @@
       <c r="V157" s="210"/>
       <c r="W157" s="346"/>
     </row>
-    <row r="158" spans="1:23" ht="15.75" hidden="1">
+    <row r="158" spans="1:23" ht="15.75">
       <c r="A158" t="s">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="B158" s="147" t="s">
         <v>139</v>
@@ -34925,9 +35614,9 @@
       </c>
       <c r="V158" s="210"/>
     </row>
-    <row r="159" spans="1:23" ht="15.75" hidden="1">
+    <row r="159" spans="1:23" ht="15.75">
       <c r="A159" t="s">
-        <v>776</v>
+        <v>866</v>
       </c>
       <c r="B159" s="147" t="s">
         <v>139</v>
@@ -34987,9 +35676,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.75" hidden="1">
+    <row r="160" spans="1:23" ht="15.75">
       <c r="A160" t="s">
-        <v>777</v>
+        <v>867</v>
       </c>
       <c r="B160" s="147" t="s">
         <v>139</v>
@@ -35049,9 +35738,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15.75" hidden="1">
+    <row r="161" spans="1:23" ht="15.75">
       <c r="A161" t="s">
-        <v>778</v>
+        <v>868</v>
       </c>
       <c r="B161" s="147" t="s">
         <v>139</v>
@@ -35113,7 +35802,7 @@
     </row>
     <row r="162" spans="1:23" ht="31.5">
       <c r="A162" t="s">
-        <v>779</v>
+        <v>869</v>
       </c>
       <c r="B162" s="147" t="s">
         <v>139</v>
@@ -35171,9 +35860,9 @@
       </c>
       <c r="V162" s="210"/>
     </row>
-    <row r="163" spans="1:23" ht="15.75" hidden="1">
+    <row r="163" spans="1:23" ht="15.75">
       <c r="A163" t="s">
-        <v>780</v>
+        <v>870</v>
       </c>
       <c r="B163" s="147" t="s">
         <v>139</v>
@@ -35231,9 +35920,9 @@
       </c>
       <c r="V163" s="210"/>
     </row>
-    <row r="164" spans="1:23" ht="15.75" hidden="1">
+    <row r="164" spans="1:23" ht="15.75">
       <c r="A164" t="s">
-        <v>781</v>
+        <v>871</v>
       </c>
       <c r="B164" s="147" t="s">
         <v>139</v>
@@ -35294,9 +35983,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15.75" hidden="1">
+    <row r="165" spans="1:23" ht="15.75">
       <c r="A165" t="s">
-        <v>782</v>
+        <v>872</v>
       </c>
       <c r="B165" s="147" t="s">
         <v>139</v>
@@ -35357,9 +36046,9 @@
       </c>
       <c r="W165" s="346"/>
     </row>
-    <row r="166" spans="1:23" ht="15.75" hidden="1">
+    <row r="166" spans="1:23" ht="15.75">
       <c r="A166" t="s">
-        <v>783</v>
+        <v>873</v>
       </c>
       <c r="B166" s="147" t="s">
         <v>139</v>
@@ -35420,9 +36109,9 @@
       </c>
       <c r="W166" s="346"/>
     </row>
-    <row r="167" spans="1:23" ht="15.75" hidden="1">
+    <row r="167" spans="1:23" ht="15.75">
       <c r="A167" t="s">
-        <v>784</v>
+        <v>874</v>
       </c>
       <c r="B167" s="147" t="s">
         <v>139</v>
@@ -35485,7 +36174,7 @@
     </row>
     <row r="168" spans="1:23" ht="31.5">
       <c r="A168" t="s">
-        <v>785</v>
+        <v>875</v>
       </c>
       <c r="B168" s="147" t="s">
         <v>139</v>
@@ -35544,9 +36233,9 @@
       <c r="V168" s="210"/>
       <c r="W168" s="346"/>
     </row>
-    <row r="169" spans="1:23" ht="15.75" hidden="1">
+    <row r="169" spans="1:23" ht="15.75">
       <c r="A169" t="s">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="B169" s="147" t="s">
         <v>139</v>
@@ -35605,9 +36294,9 @@
       <c r="V169" s="210"/>
       <c r="W169" s="346"/>
     </row>
-    <row r="170" spans="1:23" ht="15.75" hidden="1">
+    <row r="170" spans="1:23" ht="15.75">
       <c r="A170" t="s">
-        <v>787</v>
+        <v>877</v>
       </c>
       <c r="B170" s="147" t="s">
         <v>139</v>
@@ -35670,9 +36359,9 @@
         <v>706</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15.75" hidden="1">
+    <row r="171" spans="1:23" ht="15.75">
       <c r="A171" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
       <c r="B171" s="147" t="s">
         <v>139</v>
@@ -35733,9 +36422,9 @@
       </c>
       <c r="W171" s="346"/>
     </row>
-    <row r="172" spans="1:23" ht="15.75" hidden="1">
+    <row r="172" spans="1:23" ht="15.75">
       <c r="A172" t="s">
-        <v>789</v>
+        <v>879</v>
       </c>
       <c r="B172" s="147" t="s">
         <v>139</v>
@@ -35798,7 +36487,7 @@
     </row>
     <row r="173" spans="1:23" ht="31.5">
       <c r="A173" t="s">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="B173" s="147" t="s">
         <v>139</v>
@@ -35857,9 +36546,9 @@
       <c r="V173" s="210"/>
       <c r="W173" s="346"/>
     </row>
-    <row r="174" spans="1:23" ht="15.75" hidden="1">
+    <row r="174" spans="1:23" ht="15.75">
       <c r="A174" t="s">
-        <v>791</v>
+        <v>881</v>
       </c>
       <c r="B174" s="147" t="s">
         <v>139</v>
@@ -35918,9 +36607,9 @@
       <c r="V174" s="210"/>
       <c r="W174" s="346"/>
     </row>
-    <row r="175" spans="1:23" ht="15.75" hidden="1">
+    <row r="175" spans="1:23" ht="15.75">
       <c r="A175" t="s">
-        <v>792</v>
+        <v>882</v>
       </c>
       <c r="B175" s="147" t="s">
         <v>139</v>
@@ -35977,9 +36666,9 @@
       <c r="V175" s="210"/>
       <c r="W175" s="346"/>
     </row>
-    <row r="176" spans="1:23" ht="15.75" hidden="1">
+    <row r="176" spans="1:23" ht="15.75">
       <c r="A176" t="s">
-        <v>793</v>
+        <v>883</v>
       </c>
       <c r="B176" s="147" t="s">
         <v>139</v>
@@ -36042,9 +36731,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15.75" hidden="1">
+    <row r="177" spans="1:23" ht="15.75">
       <c r="A177" t="s">
-        <v>794</v>
+        <v>884</v>
       </c>
       <c r="B177" s="147" t="s">
         <v>139</v>
@@ -36105,9 +36794,9 @@
       </c>
       <c r="W177" s="346"/>
     </row>
-    <row r="178" spans="1:23" ht="15.75" hidden="1">
+    <row r="178" spans="1:23" ht="15.75">
       <c r="A178" t="s">
-        <v>795</v>
+        <v>885</v>
       </c>
       <c r="B178" s="147" t="s">
         <v>139</v>
@@ -36170,7 +36859,7 @@
     </row>
     <row r="179" spans="1:23" ht="31.5">
       <c r="A179" t="s">
-        <v>796</v>
+        <v>886</v>
       </c>
       <c r="B179" s="147" t="s">
         <v>139</v>
@@ -36229,9 +36918,9 @@
       <c r="V179" s="210"/>
       <c r="W179" s="346"/>
     </row>
-    <row r="180" spans="1:23" ht="15.75" hidden="1">
+    <row r="180" spans="1:23" ht="15.75">
       <c r="A180" t="s">
-        <v>797</v>
+        <v>887</v>
       </c>
       <c r="B180" s="147" t="s">
         <v>139</v>
@@ -36290,9 +36979,9 @@
       <c r="V180" s="210"/>
       <c r="W180" s="346"/>
     </row>
-    <row r="181" spans="1:23" ht="15.75" hidden="1">
+    <row r="181" spans="1:23" ht="15.75">
       <c r="A181" t="s">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="B181" s="147" t="s">
         <v>139</v>
@@ -36349,9 +37038,9 @@
       <c r="V181" s="210"/>
       <c r="W181" s="346"/>
     </row>
-    <row r="182" spans="1:23" ht="15.75" hidden="1">
+    <row r="182" spans="1:23" ht="15.75">
       <c r="A182" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="B182" s="147" t="s">
         <v>139</v>
@@ -36414,9 +37103,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="15.75" hidden="1">
+    <row r="183" spans="1:23" ht="15.75">
       <c r="A183" t="s">
-        <v>800</v>
+        <v>890</v>
       </c>
       <c r="B183" s="147" t="s">
         <v>139</v>
@@ -36477,9 +37166,9 @@
       </c>
       <c r="W183" s="346"/>
     </row>
-    <row r="184" spans="1:23" ht="15.75" hidden="1">
+    <row r="184" spans="1:23" ht="15.75">
       <c r="A184" t="s">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="B184" s="147" t="s">
         <v>139</v>
@@ -36542,7 +37231,7 @@
     </row>
     <row r="185" spans="1:23" ht="31.5">
       <c r="A185" t="s">
-        <v>802</v>
+        <v>892</v>
       </c>
       <c r="B185" s="147" t="s">
         <v>139</v>
@@ -36601,9 +37290,9 @@
       <c r="V185" s="210"/>
       <c r="W185" s="346"/>
     </row>
-    <row r="186" spans="1:23" ht="15.75" hidden="1">
+    <row r="186" spans="1:23" ht="15.75">
       <c r="A186" t="s">
-        <v>803</v>
+        <v>893</v>
       </c>
       <c r="B186" s="147" t="s">
         <v>139</v>
@@ -36662,9 +37351,9 @@
       <c r="V186" s="210"/>
       <c r="W186" s="346"/>
     </row>
-    <row r="187" spans="1:23" ht="15.75" hidden="1">
+    <row r="187" spans="1:23" ht="15.75">
       <c r="A187" t="s">
-        <v>804</v>
+        <v>894</v>
       </c>
       <c r="B187" s="147" t="s">
         <v>139</v>
@@ -36721,9 +37410,9 @@
       <c r="V187" s="210"/>
       <c r="W187" s="346"/>
     </row>
-    <row r="188" spans="1:23" ht="15.75" hidden="1">
+    <row r="188" spans="1:23" ht="15.75">
       <c r="A188" t="s">
-        <v>805</v>
+        <v>895</v>
       </c>
       <c r="B188" s="147" t="s">
         <v>139</v>
@@ -36783,9 +37472,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15.75" hidden="1">
+    <row r="189" spans="1:23" ht="15.75">
       <c r="A189" t="s">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="B189" s="147" t="s">
         <v>139</v>
@@ -36845,9 +37534,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15.75" hidden="1">
+    <row r="190" spans="1:23" ht="15.75">
       <c r="A190" t="s">
-        <v>807</v>
+        <v>897</v>
       </c>
       <c r="B190" s="147" t="s">
         <v>139</v>
@@ -36909,7 +37598,7 @@
     </row>
     <row r="191" spans="1:23" ht="31.5">
       <c r="A191" t="s">
-        <v>808</v>
+        <v>898</v>
       </c>
       <c r="B191" s="147" t="s">
         <v>139</v>
@@ -36967,9 +37656,9 @@
       </c>
       <c r="V191" s="210"/>
     </row>
-    <row r="192" spans="1:23" ht="15.75" hidden="1">
+    <row r="192" spans="1:23" ht="15.75">
       <c r="A192" t="s">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="B192" s="147" t="s">
         <v>139</v>
@@ -37027,9 +37716,9 @@
       </c>
       <c r="V192" s="210"/>
     </row>
-    <row r="193" spans="1:22" ht="15.75" hidden="1">
+    <row r="193" spans="1:22" ht="15.75">
       <c r="A193" t="s">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="B193" s="147" t="s">
         <v>139</v>
@@ -37085,9 +37774,9 @@
       </c>
       <c r="V193" s="210"/>
     </row>
-    <row r="194" spans="1:22" ht="15.75" hidden="1">
+    <row r="194" spans="1:22" ht="15.75">
       <c r="A194" t="s">
-        <v>811</v>
+        <v>901</v>
       </c>
       <c r="B194" s="147" t="s">
         <v>139</v>
@@ -37147,9 +37836,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="15.75" hidden="1">
+    <row r="195" spans="1:22" ht="15.75">
       <c r="A195" t="s">
-        <v>812</v>
+        <v>902</v>
       </c>
       <c r="B195" s="147" t="s">
         <v>139</v>
@@ -37209,9 +37898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="15.75" hidden="1">
+    <row r="196" spans="1:22" ht="15.75">
       <c r="A196" t="s">
-        <v>813</v>
+        <v>903</v>
       </c>
       <c r="B196" s="147" t="s">
         <v>139</v>
@@ -37273,7 +37962,7 @@
     </row>
     <row r="197" spans="1:22" ht="31.5">
       <c r="A197" t="s">
-        <v>814</v>
+        <v>904</v>
       </c>
       <c r="B197" s="147" t="s">
         <v>139</v>
@@ -37331,9 +38020,9 @@
       </c>
       <c r="V197" s="210"/>
     </row>
-    <row r="198" spans="1:22" ht="15.75" hidden="1">
+    <row r="198" spans="1:22" ht="15.75">
       <c r="A198" t="s">
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="B198" s="147" t="s">
         <v>139</v>
@@ -37391,9 +38080,9 @@
       </c>
       <c r="V198" s="210"/>
     </row>
-    <row r="199" spans="1:22" ht="15.75" hidden="1">
+    <row r="199" spans="1:22" ht="15.75">
       <c r="A199" t="s">
-        <v>816</v>
+        <v>906</v>
       </c>
       <c r="B199" s="147" t="s">
         <v>139</v>
@@ -37417,13 +38106,13 @@
         <v>172</v>
       </c>
       <c r="I199" s="148"/>
-      <c r="J199" s="367">
+      <c r="J199" s="348">
         <v>100</v>
       </c>
       <c r="K199" s="318" t="s">
         <v>18</v>
       </c>
-      <c r="L199" s="367">
+      <c r="L199" s="348">
         <v>60</v>
       </c>
       <c r="M199" s="318" t="s">
@@ -37449,7 +38138,10 @@
       </c>
       <c r="V199" s="210"/>
     </row>
-    <row r="200" spans="1:22" ht="15.75" hidden="1">
+    <row r="200" spans="1:22" ht="15.75">
+      <c r="A200" t="s">
+        <v>907</v>
+      </c>
       <c r="B200" s="225" t="s">
         <v>149</v>
       </c>
@@ -37508,7 +38200,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="15.75" hidden="1">
+    <row r="201" spans="1:22" ht="15.75">
+      <c r="A201" t="s">
+        <v>908</v>
+      </c>
       <c r="B201" s="225" t="s">
         <v>149</v>
       </c>
@@ -37567,7 +38262,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="15.75" hidden="1">
+    <row r="202" spans="1:22" ht="15.75">
+      <c r="A202" t="s">
+        <v>909</v>
+      </c>
       <c r="B202" s="225" t="s">
         <v>149</v>
       </c>
@@ -37626,7 +38324,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="31.5" hidden="1">
+    <row r="203" spans="1:22" ht="31.5">
+      <c r="A203" t="s">
+        <v>910</v>
+      </c>
       <c r="B203" s="225" t="s">
         <v>149</v>
       </c>
@@ -37683,7 +38384,10 @@
       </c>
       <c r="V203" s="243"/>
     </row>
-    <row r="204" spans="1:22" ht="15.75" hidden="1">
+    <row r="204" spans="1:22" ht="15.75">
+      <c r="A204" t="s">
+        <v>911</v>
+      </c>
       <c r="B204" s="225" t="s">
         <v>149</v>
       </c>
@@ -37740,7 +38444,10 @@
       </c>
       <c r="V204" s="243"/>
     </row>
-    <row r="205" spans="1:22" ht="15.75" hidden="1">
+    <row r="205" spans="1:22" ht="15.75">
+      <c r="A205" t="s">
+        <v>912</v>
+      </c>
       <c r="B205" s="225" t="s">
         <v>149</v>
       </c>
@@ -37795,7 +38502,10 @@
       </c>
       <c r="V205" s="243"/>
     </row>
-    <row r="206" spans="1:22" ht="15.75" hidden="1">
+    <row r="206" spans="1:22" ht="15.75">
+      <c r="A206" t="s">
+        <v>913</v>
+      </c>
       <c r="B206" s="225" t="s">
         <v>149</v>
       </c>
@@ -37854,7 +38564,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="15.75" hidden="1">
+    <row r="207" spans="1:22" ht="15.75">
+      <c r="A207" t="s">
+        <v>914</v>
+      </c>
       <c r="B207" s="225" t="s">
         <v>149</v>
       </c>
@@ -37913,7 +38626,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="15.75" hidden="1">
+    <row r="208" spans="1:22" ht="15.75">
+      <c r="A208" t="s">
+        <v>915</v>
+      </c>
       <c r="B208" s="225" t="s">
         <v>149</v>
       </c>
@@ -37972,7 +38688,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:23" ht="31.5" hidden="1">
+    <row r="209" spans="1:23" ht="31.5">
+      <c r="A209" t="s">
+        <v>916</v>
+      </c>
       <c r="B209" s="225" t="s">
         <v>149</v>
       </c>
@@ -38029,7 +38748,10 @@
       </c>
       <c r="V209" s="243"/>
     </row>
-    <row r="210" spans="2:23" ht="15.75" hidden="1">
+    <row r="210" spans="1:23" ht="15.75">
+      <c r="A210" t="s">
+        <v>917</v>
+      </c>
       <c r="B210" s="225" t="s">
         <v>149</v>
       </c>
@@ -38086,7 +38808,10 @@
       </c>
       <c r="V210" s="243"/>
     </row>
-    <row r="211" spans="2:23" ht="15.75" hidden="1">
+    <row r="211" spans="1:23" ht="15.75">
+      <c r="A211" t="s">
+        <v>918</v>
+      </c>
       <c r="B211" s="225" t="s">
         <v>149</v>
       </c>
@@ -38141,7 +38866,10 @@
       </c>
       <c r="V211" s="243"/>
     </row>
-    <row r="212" spans="2:23" ht="15.75" hidden="1">
+    <row r="212" spans="1:23" ht="15.75">
+      <c r="A212" t="s">
+        <v>919</v>
+      </c>
       <c r="B212" s="225" t="s">
         <v>149</v>
       </c>
@@ -38200,7 +38928,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="2:23" ht="15.75" hidden="1">
+    <row r="213" spans="1:23" ht="15.75">
+      <c r="A213" t="s">
+        <v>920</v>
+      </c>
       <c r="B213" s="225" t="s">
         <v>149</v>
       </c>
@@ -38259,7 +38990,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="2:23" ht="15.75" hidden="1">
+    <row r="214" spans="1:23" ht="15.75">
+      <c r="A214" t="s">
+        <v>921</v>
+      </c>
       <c r="B214" s="225" t="s">
         <v>149</v>
       </c>
@@ -38318,7 +39052,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:23" ht="31.5" hidden="1">
+    <row r="215" spans="1:23" ht="31.5">
+      <c r="A215" t="s">
+        <v>922</v>
+      </c>
       <c r="B215" s="225" t="s">
         <v>149</v>
       </c>
@@ -38375,7 +39112,10 @@
       </c>
       <c r="V215" s="243"/>
     </row>
-    <row r="216" spans="2:23" ht="15.75" hidden="1">
+    <row r="216" spans="1:23" ht="15.75">
+      <c r="A216" t="s">
+        <v>923</v>
+      </c>
       <c r="B216" s="225" t="s">
         <v>149</v>
       </c>
@@ -38432,7 +39172,10 @@
       </c>
       <c r="V216" s="243"/>
     </row>
-    <row r="217" spans="2:23" ht="15.75" hidden="1">
+    <row r="217" spans="1:23" ht="15.75">
+      <c r="A217" t="s">
+        <v>924</v>
+      </c>
       <c r="B217" s="225" t="s">
         <v>149</v>
       </c>
@@ -38487,7 +39230,10 @@
       </c>
       <c r="V217" s="243"/>
     </row>
-    <row r="218" spans="2:23" ht="15.75" hidden="1">
+    <row r="218" spans="1:23" ht="15.75">
+      <c r="A218" t="s">
+        <v>925</v>
+      </c>
       <c r="B218" s="225" t="s">
         <v>149</v>
       </c>
@@ -38546,7 +39292,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="2:23" ht="15.75" hidden="1">
+    <row r="219" spans="1:23" ht="15.75">
+      <c r="A219" t="s">
+        <v>926</v>
+      </c>
       <c r="B219" s="225" t="s">
         <v>149</v>
       </c>
@@ -38605,7 +39354,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:23" ht="15.75" hidden="1">
+    <row r="220" spans="1:23" ht="15.75">
+      <c r="A220" t="s">
+        <v>927</v>
+      </c>
       <c r="B220" s="225" t="s">
         <v>149</v>
       </c>
@@ -38664,7 +39416,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:23" ht="31.5" hidden="1">
+    <row r="221" spans="1:23" ht="31.5">
+      <c r="A221" t="s">
+        <v>928</v>
+      </c>
       <c r="B221" s="225" t="s">
         <v>149</v>
       </c>
@@ -38721,7 +39476,10 @@
       </c>
       <c r="V221" s="243"/>
     </row>
-    <row r="222" spans="2:23" ht="15.75" hidden="1">
+    <row r="222" spans="1:23" ht="15.75">
+      <c r="A222" t="s">
+        <v>929</v>
+      </c>
       <c r="B222" s="225" t="s">
         <v>149</v>
       </c>
@@ -38778,7 +39536,10 @@
       </c>
       <c r="V222" s="243"/>
     </row>
-    <row r="223" spans="2:23" ht="15.75" hidden="1">
+    <row r="223" spans="1:23" ht="15.75">
+      <c r="A223" t="s">
+        <v>930</v>
+      </c>
       <c r="B223" s="225" t="s">
         <v>149</v>
       </c>
@@ -38833,7 +39594,10 @@
       </c>
       <c r="V223" s="243"/>
     </row>
-    <row r="224" spans="2:23" ht="15.75" hidden="1">
+    <row r="224" spans="1:23" ht="15.75">
+      <c r="A224" t="s">
+        <v>931</v>
+      </c>
       <c r="B224" s="333" t="s">
         <v>149</v>
       </c>
@@ -38895,7 +39659,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="225" spans="2:23" ht="15.75" hidden="1">
+    <row r="225" spans="1:23" ht="15.75">
+      <c r="A225" t="s">
+        <v>932</v>
+      </c>
       <c r="B225" s="333" t="s">
         <v>149</v>
       </c>
@@ -38957,7 +39724,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="226" spans="2:23" ht="15.75" hidden="1">
+    <row r="226" spans="1:23" ht="15.75">
+      <c r="A226" t="s">
+        <v>933</v>
+      </c>
       <c r="B226" s="333" t="s">
         <v>149</v>
       </c>
@@ -39019,7 +39789,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="227" spans="2:23" ht="31.5" hidden="1">
+    <row r="227" spans="1:23" ht="31.5">
+      <c r="A227" t="s">
+        <v>934</v>
+      </c>
       <c r="B227" s="333" t="s">
         <v>149</v>
       </c>
@@ -39079,7 +39852,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="2:23" ht="15.75" hidden="1">
+    <row r="228" spans="1:23" ht="15.75">
+      <c r="A228" t="s">
+        <v>935</v>
+      </c>
       <c r="B228" s="333" t="s">
         <v>149</v>
       </c>
@@ -39139,7 +39915,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="2:23" ht="15.75" hidden="1">
+    <row r="229" spans="1:23" ht="15.75">
+      <c r="A229" t="s">
+        <v>936</v>
+      </c>
       <c r="B229" s="333" t="s">
         <v>149</v>
       </c>
@@ -39197,7 +39976,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="230" spans="2:23" ht="15.75" hidden="1">
+    <row r="230" spans="1:23" ht="15.75">
+      <c r="A230" t="s">
+        <v>937</v>
+      </c>
       <c r="B230" s="225" t="s">
         <v>149</v>
       </c>
@@ -39256,7 +40038,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:23" ht="15.75" hidden="1">
+    <row r="231" spans="1:23" ht="15.75">
+      <c r="A231" t="s">
+        <v>938</v>
+      </c>
       <c r="B231" s="225" t="s">
         <v>149</v>
       </c>
@@ -39315,7 +40100,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="2:23" ht="15.75" hidden="1">
+    <row r="232" spans="1:23" ht="15.75">
+      <c r="A232" t="s">
+        <v>939</v>
+      </c>
       <c r="B232" s="225" t="s">
         <v>149</v>
       </c>
@@ -39374,7 +40162,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:23" ht="31.5" hidden="1">
+    <row r="233" spans="1:23" ht="31.5">
+      <c r="A233" t="s">
+        <v>940</v>
+      </c>
       <c r="B233" s="225" t="s">
         <v>149</v>
       </c>
@@ -39431,7 +40222,10 @@
       </c>
       <c r="V233" s="243"/>
     </row>
-    <row r="234" spans="2:23" ht="15.75" hidden="1">
+    <row r="234" spans="1:23" ht="15.75">
+      <c r="A234" t="s">
+        <v>941</v>
+      </c>
       <c r="B234" s="225" t="s">
         <v>149</v>
       </c>
@@ -39488,7 +40282,10 @@
       </c>
       <c r="V234" s="243"/>
     </row>
-    <row r="235" spans="2:23" ht="31.5" hidden="1">
+    <row r="235" spans="1:23" ht="31.5">
+      <c r="A235" t="s">
+        <v>942</v>
+      </c>
       <c r="B235" s="225" t="s">
         <v>149</v>
       </c>
@@ -39543,7 +40340,10 @@
       </c>
       <c r="V235" s="243"/>
     </row>
-    <row r="236" spans="2:23" ht="15.75" hidden="1">
+    <row r="236" spans="1:23" ht="15.75">
+      <c r="A236" t="s">
+        <v>943</v>
+      </c>
       <c r="B236" s="225" t="s">
         <v>149</v>
       </c>
@@ -39602,7 +40402,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="2:23" ht="15.75" hidden="1">
+    <row r="237" spans="1:23" ht="15.75">
+      <c r="A237" t="s">
+        <v>944</v>
+      </c>
       <c r="B237" s="225" t="s">
         <v>149</v>
       </c>
@@ -39661,7 +40464,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:23" ht="15.75" hidden="1">
+    <row r="238" spans="1:23" ht="15.75">
+      <c r="A238" t="s">
+        <v>945</v>
+      </c>
       <c r="B238" s="225" t="s">
         <v>149</v>
       </c>
@@ -39720,7 +40526,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:23" ht="31.5" hidden="1">
+    <row r="239" spans="1:23" ht="31.5">
+      <c r="A239" t="s">
+        <v>946</v>
+      </c>
       <c r="B239" s="225" t="s">
         <v>149</v>
       </c>
@@ -39777,7 +40586,10 @@
       </c>
       <c r="V239" s="243"/>
     </row>
-    <row r="240" spans="2:23" ht="15.75" hidden="1">
+    <row r="240" spans="1:23" ht="15.75">
+      <c r="A240" t="s">
+        <v>947</v>
+      </c>
       <c r="B240" s="225" t="s">
         <v>149</v>
       </c>
@@ -39834,7 +40646,10 @@
       </c>
       <c r="V240" s="243"/>
     </row>
-    <row r="241" spans="2:22" ht="15.75" hidden="1">
+    <row r="241" spans="1:22" ht="15.75">
+      <c r="A241" t="s">
+        <v>948</v>
+      </c>
       <c r="B241" s="225" t="s">
         <v>149</v>
       </c>
@@ -39889,7 +40704,10 @@
       </c>
       <c r="V241" s="243"/>
     </row>
-    <row r="242" spans="2:22" ht="15.75" hidden="1">
+    <row r="242" spans="1:22" ht="15.75">
+      <c r="A242" t="s">
+        <v>949</v>
+      </c>
       <c r="B242" s="225" t="s">
         <v>149</v>
       </c>
@@ -39948,7 +40766,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="2:22" ht="15.75" hidden="1">
+    <row r="243" spans="1:22" ht="15.75">
+      <c r="A243" t="s">
+        <v>950</v>
+      </c>
       <c r="B243" s="225" t="s">
         <v>149</v>
       </c>
@@ -40007,7 +40828,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:22" ht="15.75" hidden="1">
+    <row r="244" spans="1:22" ht="15.75">
+      <c r="A244" t="s">
+        <v>951</v>
+      </c>
       <c r="B244" s="225" t="s">
         <v>149</v>
       </c>
@@ -40066,7 +40890,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:22" ht="31.5" hidden="1">
+    <row r="245" spans="1:22" ht="31.5">
+      <c r="A245" t="s">
+        <v>952</v>
+      </c>
       <c r="B245" s="225" t="s">
         <v>149</v>
       </c>
@@ -40123,7 +40950,10 @@
       </c>
       <c r="V245" s="243"/>
     </row>
-    <row r="246" spans="2:22" ht="15.75" hidden="1">
+    <row r="246" spans="1:22" ht="15.75">
+      <c r="A246" t="s">
+        <v>953</v>
+      </c>
       <c r="B246" s="225" t="s">
         <v>149</v>
       </c>
@@ -40180,7 +41010,10 @@
       </c>
       <c r="V246" s="243"/>
     </row>
-    <row r="247" spans="2:22" ht="31.5" hidden="1">
+    <row r="247" spans="1:22" ht="31.5">
+      <c r="A247" t="s">
+        <v>954</v>
+      </c>
       <c r="B247" s="225" t="s">
         <v>149</v>
       </c>
@@ -40236,27 +41069,10 @@
       <c r="V247" s="243"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:W247" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Jenny Laynes"/>
-        <filter val="Marco Quiroz"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Tiempo máximo de ejecución de una transacción desde recibida la petición en el cliente"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="J1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="60" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G104" r:id="rId1" display="http://router-default.apps.certificacion.vuce.gob.pe/autenticacion2/authentication-api/v1/perfil/perfil-dependencias?perfilId=1226" xr:uid="{193056FD-666A-4C49-B72B-C2431971A80F}"/>
     <hyperlink ref="G105" r:id="rId2" display="http://router-default.apps.certificacion.vuce.gob.pe/autenticacion2/authentication-api/v1/perfil/perfil-dependencias?perfilId=1226" xr:uid="{D521BA23-3391-4BDB-BBF0-E3836817ABC3}"/>
@@ -40306,12 +41122,12 @@
       <c r="D1" s="126" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="358" t="s">
+      <c r="E1" s="359" t="s">
         <v>611</v>
       </c>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="361"/>
       <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -40942,14 +41758,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="361" t="s">
+      <c r="F1" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -41629,19 +42445,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="363" t="s">
+      <c r="A6" s="364" t="s">
         <v>689</v>
       </c>
-      <c r="B6" s="363" t="s">
+      <c r="B6" s="364" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="363" t="s">
+      <c r="C6" s="364" t="s">
         <v>676</v>
       </c>
-      <c r="D6" s="365" t="s">
+      <c r="D6" s="366" t="s">
         <v>690</v>
       </c>
-      <c r="E6" s="366" t="s">
+      <c r="E6" s="367" t="s">
         <v>618</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -41653,11 +42469,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="364"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="364"/>
-      <c r="D7" s="364"/>
-      <c r="E7" s="364"/>
+      <c r="A7" s="365"/>
+      <c r="B7" s="365"/>
+      <c r="C7" s="365"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
       <c r="F7" s="61" t="s">
         <v>692</v>
       </c>
@@ -41762,14 +42578,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
-      <c r="J1" s="349"/>
-      <c r="K1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="351"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -41787,7 +42603,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="352" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -41838,7 +42654,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="352"/>
+      <c r="A3" s="353"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -41886,7 +42702,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="353"/>
+      <c r="A4" s="354"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -52173,14 +52989,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="354" t="s">
+      <c r="I1" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -61252,12 +62068,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61522,21 +62341,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -61561,12 +62380,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
+++ b/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E355B-6DC3-4A80-9D43-140D5160806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DE7244-F7EB-4C3C-AB9E-756AA53CACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11958" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11850" uniqueCount="847">
   <si>
     <t>RUTA DE EJEMPLO DE EJECUCIÓN DE TIPO POST</t>
   </si>
@@ -3054,168 +3054,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>CP01</t>
-  </si>
-  <si>
-    <t>CP02</t>
-  </si>
-  <si>
-    <t>CP03</t>
-  </si>
-  <si>
-    <t>CP04</t>
-  </si>
-  <si>
-    <t>CP05</t>
-  </si>
-  <si>
-    <t>CP06</t>
-  </si>
-  <si>
-    <t>CP07</t>
-  </si>
-  <si>
-    <t>CP08</t>
-  </si>
-  <si>
-    <t>CP09</t>
-  </si>
-  <si>
-    <t>CP10</t>
-  </si>
-  <si>
-    <t>CP11</t>
-  </si>
-  <si>
-    <t>CP12</t>
-  </si>
-  <si>
-    <t>CP13</t>
-  </si>
-  <si>
-    <t>CP14</t>
-  </si>
-  <si>
-    <t>CP15</t>
-  </si>
-  <si>
-    <t>CP16</t>
-  </si>
-  <si>
-    <t>CP17</t>
-  </si>
-  <si>
-    <t>CP18</t>
-  </si>
-  <si>
-    <t>CP19</t>
-  </si>
-  <si>
-    <t>CP20</t>
-  </si>
-  <si>
-    <t>CP21</t>
-  </si>
-  <si>
-    <t>CP22</t>
-  </si>
-  <si>
-    <t>CP23</t>
-  </si>
-  <si>
-    <t>CP24</t>
-  </si>
-  <si>
-    <t>CP25</t>
-  </si>
-  <si>
-    <t>CP26</t>
-  </si>
-  <si>
-    <t>CP27</t>
-  </si>
-  <si>
-    <t>CP28</t>
-  </si>
-  <si>
-    <t>CP29</t>
-  </si>
-  <si>
-    <t>CP30</t>
-  </si>
-  <si>
-    <t>CP31</t>
-  </si>
-  <si>
-    <t>CP32</t>
-  </si>
-  <si>
-    <t>CP33</t>
-  </si>
-  <si>
-    <t>CP34</t>
-  </si>
-  <si>
-    <t>CP35</t>
-  </si>
-  <si>
-    <t>CP36</t>
-  </si>
-  <si>
-    <t>CP37</t>
-  </si>
-  <si>
-    <t>CP38</t>
-  </si>
-  <si>
-    <t>CP39</t>
-  </si>
-  <si>
-    <t>CP40</t>
-  </si>
-  <si>
-    <t>CP41</t>
-  </si>
-  <si>
-    <t>CP42</t>
-  </si>
-  <si>
-    <t>CP43</t>
-  </si>
-  <si>
-    <t>CP44</t>
-  </si>
-  <si>
-    <t>CP45</t>
-  </si>
-  <si>
-    <t>CP46</t>
-  </si>
-  <si>
-    <t>CP47</t>
-  </si>
-  <si>
-    <t>CP48</t>
-  </si>
-  <si>
-    <t>CP49</t>
-  </si>
-  <si>
-    <t>CP50</t>
-  </si>
-  <si>
-    <t>CP51</t>
-  </si>
-  <si>
-    <t>CP52</t>
-  </si>
-  <si>
-    <t>CP53</t>
-  </si>
-  <si>
-    <t>CP54</t>
-  </si>
-  <si>
     <t>CP55</t>
   </si>
   <si>
@@ -3484,168 +3322,6 @@
   </si>
   <si>
     <t>CP144</t>
-  </si>
-  <si>
-    <t>CP145</t>
-  </si>
-  <si>
-    <t>CP146</t>
-  </si>
-  <si>
-    <t>CP147</t>
-  </si>
-  <si>
-    <t>CP148</t>
-  </si>
-  <si>
-    <t>CP149</t>
-  </si>
-  <si>
-    <t>CP150</t>
-  </si>
-  <si>
-    <t>CP151</t>
-  </si>
-  <si>
-    <t>CP152</t>
-  </si>
-  <si>
-    <t>CP153</t>
-  </si>
-  <si>
-    <t>CP154</t>
-  </si>
-  <si>
-    <t>CP155</t>
-  </si>
-  <si>
-    <t>CP156</t>
-  </si>
-  <si>
-    <t>CP157</t>
-  </si>
-  <si>
-    <t>CP158</t>
-  </si>
-  <si>
-    <t>CP159</t>
-  </si>
-  <si>
-    <t>CP160</t>
-  </si>
-  <si>
-    <t>CP161</t>
-  </si>
-  <si>
-    <t>CP162</t>
-  </si>
-  <si>
-    <t>CP163</t>
-  </si>
-  <si>
-    <t>CP164</t>
-  </si>
-  <si>
-    <t>CP165</t>
-  </si>
-  <si>
-    <t>CP166</t>
-  </si>
-  <si>
-    <t>CP167</t>
-  </si>
-  <si>
-    <t>CP168</t>
-  </si>
-  <si>
-    <t>CP169</t>
-  </si>
-  <si>
-    <t>CP170</t>
-  </si>
-  <si>
-    <t>CP171</t>
-  </si>
-  <si>
-    <t>CP172</t>
-  </si>
-  <si>
-    <t>CP173</t>
-  </si>
-  <si>
-    <t>CP174</t>
-  </si>
-  <si>
-    <t>CP175</t>
-  </si>
-  <si>
-    <t>CP176</t>
-  </si>
-  <si>
-    <t>CP177</t>
-  </si>
-  <si>
-    <t>CP178</t>
-  </si>
-  <si>
-    <t>CP179</t>
-  </si>
-  <si>
-    <t>CP180</t>
-  </si>
-  <si>
-    <t>CP181</t>
-  </si>
-  <si>
-    <t>CP182</t>
-  </si>
-  <si>
-    <t>CP183</t>
-  </si>
-  <si>
-    <t>CP184</t>
-  </si>
-  <si>
-    <t>CP185</t>
-  </si>
-  <si>
-    <t>CP186</t>
-  </si>
-  <si>
-    <t>CP187</t>
-  </si>
-  <si>
-    <t>CP188</t>
-  </si>
-  <si>
-    <t>CP189</t>
-  </si>
-  <si>
-    <t>CP190</t>
-  </si>
-  <si>
-    <t>CP191</t>
-  </si>
-  <si>
-    <t>CP192</t>
-  </si>
-  <si>
-    <t>CP193</t>
-  </si>
-  <si>
-    <t>CP194</t>
-  </si>
-  <si>
-    <t>CP195</t>
-  </si>
-  <si>
-    <t>CP196</t>
-  </si>
-  <si>
-    <t>CP197</t>
-  </si>
-  <si>
-    <t>CP198</t>
   </si>
   <si>
     <t>CP199</t>
@@ -4715,7 +4391,7 @@
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5670,6 +5346,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -25593,11 +25270,12 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -25685,8 +25363,8 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75">
-      <c r="A2" t="s">
-        <v>709</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="213" t="s">
         <v>79</v>
@@ -25750,8 +25428,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75">
-      <c r="A3" t="s">
-        <v>710</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="213" t="s">
         <v>79</v>
@@ -25815,8 +25493,8 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75">
-      <c r="A4" t="s">
-        <v>711</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="213" t="s">
         <v>79</v>
@@ -25880,8 +25558,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="31.5">
-      <c r="A5" t="s">
-        <v>712</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="213" t="s">
         <v>79</v>
@@ -25943,8 +25621,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75">
-      <c r="A6" t="s">
-        <v>713</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="213" t="s">
         <v>79</v>
@@ -26006,8 +25684,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75">
-      <c r="A7" t="s">
-        <v>714</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>79</v>
@@ -26067,8 +25745,8 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75">
-      <c r="A8" t="s">
-        <v>715</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" s="213" t="s">
         <v>79</v>
@@ -26132,8 +25810,8 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75">
-      <c r="A9" t="s">
-        <v>716</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" s="213" t="s">
         <v>79</v>
@@ -26197,8 +25875,8 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75">
-      <c r="A10" t="s">
-        <v>717</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" s="213" t="s">
         <v>79</v>
@@ -26262,8 +25940,8 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="31.5">
-      <c r="A11" t="s">
-        <v>718</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="213" t="s">
         <v>79</v>
@@ -26325,8 +26003,8 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75">
-      <c r="A12" t="s">
-        <v>719</v>
+      <c r="A12" s="368">
+        <v>11</v>
       </c>
       <c r="B12" s="213" t="s">
         <v>79</v>
@@ -26388,8 +26066,8 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75">
-      <c r="A13" t="s">
-        <v>720</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="213" t="s">
         <v>79</v>
@@ -26449,8 +26127,8 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75">
-      <c r="A14" t="s">
-        <v>721</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="213" t="s">
         <v>79</v>
@@ -26512,8 +26190,8 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75">
-      <c r="A15" t="s">
-        <v>722</v>
+      <c r="A15">
+        <v>1</v>
       </c>
       <c r="B15" s="213" t="s">
         <v>79</v>
@@ -26577,8 +26255,8 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75">
-      <c r="A16" t="s">
-        <v>723</v>
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" s="213" t="s">
         <v>79</v>
@@ -26642,8 +26320,8 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75">
-      <c r="A17" t="s">
-        <v>724</v>
+      <c r="A17">
+        <v>1</v>
       </c>
       <c r="B17" s="213" t="s">
         <v>79</v>
@@ -26707,8 +26385,8 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="31.5">
-      <c r="A18" t="s">
-        <v>725</v>
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18" s="213" t="s">
         <v>79</v>
@@ -26770,8 +26448,8 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75">
-      <c r="A19" t="s">
-        <v>726</v>
+      <c r="A19">
+        <v>1</v>
       </c>
       <c r="B19" s="213" t="s">
         <v>79</v>
@@ -26832,9 +26510,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="78.75">
-      <c r="A20" t="s">
-        <v>727</v>
+    <row r="20" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A20">
+        <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
         <v>79</v>
@@ -26895,9 +26573,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="78.75">
-      <c r="A21" t="s">
-        <v>728</v>
+    <row r="21" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21" s="147" t="s">
         <v>79</v>
@@ -26958,9 +26636,9 @@
       </c>
       <c r="W21" s="346"/>
     </row>
-    <row r="22" spans="1:23" ht="78.75">
-      <c r="A22" t="s">
-        <v>729</v>
+    <row r="22" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22" s="147" t="s">
         <v>79</v>
@@ -27021,9 +26699,9 @@
       </c>
       <c r="W22" s="346"/>
     </row>
-    <row r="23" spans="1:23" ht="78.75">
-      <c r="A23" t="s">
-        <v>730</v>
+    <row r="23" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A23">
+        <v>1</v>
       </c>
       <c r="B23" s="147" t="s">
         <v>79</v>
@@ -27084,9 +26762,9 @@
       </c>
       <c r="W23" s="346"/>
     </row>
-    <row r="24" spans="1:23" ht="78.75">
-      <c r="A24" t="s">
-        <v>731</v>
+    <row r="24" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A24">
+        <v>1</v>
       </c>
       <c r="B24" s="147" t="s">
         <v>79</v>
@@ -27145,9 +26823,9 @@
       <c r="V24" s="235"/>
       <c r="W24" s="346"/>
     </row>
-    <row r="25" spans="1:23" ht="78.75">
-      <c r="A25" t="s">
-        <v>732</v>
+    <row r="25" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A25">
+        <v>1</v>
       </c>
       <c r="B25" s="147" t="s">
         <v>79</v>
@@ -27206,9 +26884,9 @@
       <c r="V25" s="235"/>
       <c r="W25" s="346"/>
     </row>
-    <row r="26" spans="1:23" ht="78.75">
-      <c r="A26" t="s">
-        <v>733</v>
+    <row r="26" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A26">
+        <v>1</v>
       </c>
       <c r="B26" s="147" t="s">
         <v>79</v>
@@ -27269,9 +26947,9 @@
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="78.75">
-      <c r="A27" t="s">
-        <v>734</v>
+    <row r="27" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A27">
+        <v>1</v>
       </c>
       <c r="B27" s="147" t="s">
         <v>79</v>
@@ -27332,9 +27010,9 @@
       </c>
       <c r="W27" s="346"/>
     </row>
-    <row r="28" spans="1:23" ht="78.75">
-      <c r="A28" t="s">
-        <v>735</v>
+    <row r="28" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A28">
+        <v>1</v>
       </c>
       <c r="B28" s="147" t="s">
         <v>79</v>
@@ -27395,9 +27073,9 @@
       </c>
       <c r="W28" s="346"/>
     </row>
-    <row r="29" spans="1:23" ht="78.75">
-      <c r="A29" t="s">
-        <v>736</v>
+    <row r="29" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A29">
+        <v>1</v>
       </c>
       <c r="B29" s="147" t="s">
         <v>79</v>
@@ -27458,9 +27136,9 @@
       </c>
       <c r="W29" s="346"/>
     </row>
-    <row r="30" spans="1:23" ht="78.75">
-      <c r="A30" t="s">
-        <v>737</v>
+    <row r="30" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A30">
+        <v>1</v>
       </c>
       <c r="B30" s="147" t="s">
         <v>79</v>
@@ -27519,9 +27197,9 @@
       <c r="V30" s="235"/>
       <c r="W30" s="346"/>
     </row>
-    <row r="31" spans="1:23" ht="78.75">
-      <c r="A31" t="s">
-        <v>738</v>
+    <row r="31" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A31">
+        <v>1</v>
       </c>
       <c r="B31" s="147" t="s">
         <v>79</v>
@@ -27581,8 +27259,8 @@
       <c r="W31" s="346"/>
     </row>
     <row r="32" spans="1:23" ht="15.75">
-      <c r="A32" t="s">
-        <v>739</v>
+      <c r="A32">
+        <v>1</v>
       </c>
       <c r="B32" s="147" t="s">
         <v>79</v>
@@ -27641,8 +27319,8 @@
       <c r="V32" s="235"/>
     </row>
     <row r="33" spans="1:22" ht="15.75">
-      <c r="A33" t="s">
-        <v>740</v>
+      <c r="A33">
+        <v>1</v>
       </c>
       <c r="B33" s="147" t="s">
         <v>79</v>
@@ -27703,8 +27381,8 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75">
-      <c r="A34" t="s">
-        <v>741</v>
+      <c r="A34">
+        <v>1</v>
       </c>
       <c r="B34" s="147" t="s">
         <v>79</v>
@@ -27765,8 +27443,8 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75">
-      <c r="A35" t="s">
-        <v>742</v>
+      <c r="A35">
+        <v>1</v>
       </c>
       <c r="B35" s="147" t="s">
         <v>79</v>
@@ -27827,8 +27505,8 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="31.5">
-      <c r="A36" t="s">
-        <v>743</v>
+      <c r="A36">
+        <v>1</v>
       </c>
       <c r="B36" s="147" t="s">
         <v>79</v>
@@ -27887,8 +27565,8 @@
       <c r="V36" s="235"/>
     </row>
     <row r="37" spans="1:22" ht="15.75">
-      <c r="A37" t="s">
-        <v>744</v>
+      <c r="A37">
+        <v>1</v>
       </c>
       <c r="B37" s="147" t="s">
         <v>79</v>
@@ -27947,8 +27625,8 @@
       <c r="V37" s="235"/>
     </row>
     <row r="38" spans="1:22" s="199" customFormat="1" ht="15.75">
-      <c r="A38" t="s">
-        <v>745</v>
+      <c r="A38">
+        <v>1</v>
       </c>
       <c r="B38" s="147" t="s">
         <v>79</v>
@@ -28009,8 +27687,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75">
-      <c r="A39" t="s">
-        <v>746</v>
+      <c r="A39">
+        <v>1</v>
       </c>
       <c r="B39" s="147" t="s">
         <v>79</v>
@@ -28071,8 +27749,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75">
-      <c r="A40" t="s">
-        <v>747</v>
+      <c r="A40">
+        <v>1</v>
       </c>
       <c r="B40" s="147" t="s">
         <v>79</v>
@@ -28133,8 +27811,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="31.5">
-      <c r="A41" t="s">
-        <v>748</v>
+      <c r="A41">
+        <v>1</v>
       </c>
       <c r="B41" s="147" t="s">
         <v>79</v>
@@ -28193,8 +27871,8 @@
       <c r="V41" s="235"/>
     </row>
     <row r="42" spans="1:22" ht="15.75">
-      <c r="A42" t="s">
-        <v>749</v>
+      <c r="A42">
+        <v>1</v>
       </c>
       <c r="B42" s="147" t="s">
         <v>79</v>
@@ -28253,8 +27931,8 @@
       <c r="V42" s="235"/>
     </row>
     <row r="43" spans="1:22" ht="15.75">
-      <c r="A43" t="s">
-        <v>750</v>
+      <c r="A43">
+        <v>1</v>
       </c>
       <c r="B43" s="147" t="s">
         <v>79</v>
@@ -28311,8 +27989,8 @@
       <c r="V43" s="235"/>
     </row>
     <row r="44" spans="1:22" ht="15.75">
-      <c r="A44" t="s">
-        <v>751</v>
+      <c r="A44">
+        <v>1</v>
       </c>
       <c r="B44" s="147" t="s">
         <v>79</v>
@@ -28371,8 +28049,8 @@
       <c r="V44" s="235"/>
     </row>
     <row r="45" spans="1:22" ht="15.75">
-      <c r="A45" t="s">
-        <v>752</v>
+      <c r="A45">
+        <v>1</v>
       </c>
       <c r="B45" s="147" t="s">
         <v>79</v>
@@ -28433,8 +28111,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75">
-      <c r="A46" t="s">
-        <v>753</v>
+      <c r="A46">
+        <v>1</v>
       </c>
       <c r="B46" s="147" t="s">
         <v>79</v>
@@ -28495,8 +28173,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75">
-      <c r="A47" t="s">
-        <v>754</v>
+      <c r="A47">
+        <v>1</v>
       </c>
       <c r="B47" s="147" t="s">
         <v>79</v>
@@ -28557,8 +28235,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="31.5">
-      <c r="A48" t="s">
-        <v>755</v>
+      <c r="A48">
+        <v>1</v>
       </c>
       <c r="B48" s="147" t="s">
         <v>79</v>
@@ -28617,8 +28295,8 @@
       <c r="V48" s="235"/>
     </row>
     <row r="49" spans="1:23" ht="15.75">
-      <c r="A49" t="s">
-        <v>756</v>
+      <c r="A49">
+        <v>1</v>
       </c>
       <c r="B49" s="147" t="s">
         <v>79</v>
@@ -28677,8 +28355,8 @@
       <c r="V49" s="235"/>
     </row>
     <row r="50" spans="1:23" ht="15.75">
-      <c r="A50" t="s">
-        <v>757</v>
+      <c r="A50">
+        <v>1</v>
       </c>
       <c r="B50" s="147" t="s">
         <v>79</v>
@@ -28739,8 +28417,8 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15.75">
-      <c r="A51" t="s">
-        <v>758</v>
+      <c r="A51">
+        <v>1</v>
       </c>
       <c r="B51" s="147" t="s">
         <v>79</v>
@@ -28801,8 +28479,8 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75">
-      <c r="A52" t="s">
-        <v>759</v>
+      <c r="A52">
+        <v>1</v>
       </c>
       <c r="B52" s="147" t="s">
         <v>79</v>
@@ -28863,8 +28541,8 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="31.5">
-      <c r="A53" t="s">
-        <v>760</v>
+      <c r="A53">
+        <v>1</v>
       </c>
       <c r="B53" s="147" t="s">
         <v>79</v>
@@ -28923,8 +28601,8 @@
       <c r="V53" s="235"/>
     </row>
     <row r="54" spans="1:23" ht="15.75">
-      <c r="A54" t="s">
-        <v>761</v>
+      <c r="A54">
+        <v>1</v>
       </c>
       <c r="B54" s="147" t="s">
         <v>79</v>
@@ -28983,8 +28661,8 @@
       <c r="V54" s="235"/>
     </row>
     <row r="55" spans="1:23" ht="15.75">
-      <c r="A55" t="s">
-        <v>762</v>
+      <c r="A55">
+        <v>1</v>
       </c>
       <c r="B55" s="147" t="s">
         <v>79</v>
@@ -29040,9 +28718,9 @@
       </c>
       <c r="V55" s="210"/>
     </row>
-    <row r="56" spans="1:23" ht="56.25" customHeight="1">
+    <row r="56" spans="1:23" ht="56.25" hidden="1" customHeight="1">
       <c r="A56" t="s">
-        <v>763</v>
+        <v>709</v>
       </c>
       <c r="B56" s="230" t="s">
         <v>109</v>
@@ -29103,9 +28781,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="39" customHeight="1">
+    <row r="57" spans="1:23" ht="39" hidden="1" customHeight="1">
       <c r="A57" t="s">
-        <v>764</v>
+        <v>710</v>
       </c>
       <c r="B57" s="230" t="s">
         <v>109</v>
@@ -29168,9 +28846,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="29.25" customHeight="1">
+    <row r="58" spans="1:23" ht="29.25" hidden="1" customHeight="1">
       <c r="A58" t="s">
-        <v>765</v>
+        <v>711</v>
       </c>
       <c r="B58" s="230" t="s">
         <v>109</v>
@@ -29233,9 +28911,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="71.25" customHeight="1">
+    <row r="59" spans="1:23" ht="71.25" hidden="1" customHeight="1">
       <c r="A59" t="s">
-        <v>766</v>
+        <v>712</v>
       </c>
       <c r="B59" s="230" t="s">
         <v>109</v>
@@ -29298,9 +28976,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="46.5" customHeight="1">
+    <row r="60" spans="1:23" ht="46.5" hidden="1" customHeight="1">
       <c r="A60" t="s">
-        <v>767</v>
+        <v>713</v>
       </c>
       <c r="B60" s="230" t="s">
         <v>109</v>
@@ -29361,9 +29039,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="42.75" customHeight="1">
+    <row r="61" spans="1:23" ht="42.75" hidden="1" customHeight="1">
       <c r="A61" t="s">
-        <v>768</v>
+        <v>714</v>
       </c>
       <c r="B61" s="230" t="s">
         <v>109</v>
@@ -29424,9 +29102,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75">
+    <row r="62" spans="1:23" ht="15.75" hidden="1">
       <c r="A62" t="s">
-        <v>769</v>
+        <v>715</v>
       </c>
       <c r="B62" s="230" t="s">
         <v>109</v>
@@ -29487,9 +29165,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75">
+    <row r="63" spans="1:23" ht="15.75" hidden="1">
       <c r="A63" t="s">
-        <v>770</v>
+        <v>716</v>
       </c>
       <c r="B63" s="230" t="s">
         <v>109</v>
@@ -29552,9 +29230,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75">
+    <row r="64" spans="1:23" ht="15.75" hidden="1">
       <c r="A64" t="s">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="B64" s="230" t="s">
         <v>109</v>
@@ -29617,9 +29295,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15.75">
+    <row r="65" spans="1:23" ht="15.75" hidden="1">
       <c r="A65" t="s">
-        <v>772</v>
+        <v>718</v>
       </c>
       <c r="B65" s="230" t="s">
         <v>109</v>
@@ -29682,9 +29360,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="31.5">
+    <row r="66" spans="1:23" ht="31.5" hidden="1">
       <c r="A66" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="B66" s="230" t="s">
         <v>109</v>
@@ -29745,9 +29423,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.75">
+    <row r="67" spans="1:23" ht="15.75" hidden="1">
       <c r="A67" t="s">
-        <v>774</v>
+        <v>720</v>
       </c>
       <c r="B67" s="230" t="s">
         <v>109</v>
@@ -29808,9 +29486,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="45" customHeight="1">
+    <row r="68" spans="1:23" ht="45" hidden="1" customHeight="1">
       <c r="A68" t="s">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="B68" s="234" t="s">
         <v>109</v>
@@ -29868,9 +29546,9 @@
       </c>
       <c r="V68" s="235"/>
     </row>
-    <row r="69" spans="1:23" ht="55.5" customHeight="1">
+    <row r="69" spans="1:23" ht="55.5" hidden="1" customHeight="1">
       <c r="A69" t="s">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="B69" s="234" t="s">
         <v>109</v>
@@ -29930,9 +29608,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="51" customHeight="1">
+    <row r="70" spans="1:23" ht="51" hidden="1" customHeight="1">
       <c r="A70" t="s">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="B70" s="234" t="s">
         <v>109</v>
@@ -29992,9 +29670,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="48" customHeight="1">
+    <row r="71" spans="1:23" ht="48" hidden="1" customHeight="1">
       <c r="A71" t="s">
-        <v>778</v>
+        <v>724</v>
       </c>
       <c r="B71" s="234" t="s">
         <v>109</v>
@@ -30054,9 +29732,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="39.75" customHeight="1">
+    <row r="72" spans="1:23" ht="39.75" hidden="1" customHeight="1">
       <c r="A72" t="s">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="B72" s="234" t="s">
         <v>109</v>
@@ -30114,9 +29792,9 @@
       </c>
       <c r="V72" s="235"/>
     </row>
-    <row r="73" spans="1:23" ht="47.25" customHeight="1">
+    <row r="73" spans="1:23" ht="47.25" hidden="1" customHeight="1">
       <c r="A73" t="s">
-        <v>780</v>
+        <v>726</v>
       </c>
       <c r="B73" s="234" t="s">
         <v>109</v>
@@ -30174,9 +29852,9 @@
       </c>
       <c r="V73" s="235"/>
     </row>
-    <row r="74" spans="1:23" ht="49.5" customHeight="1">
+    <row r="74" spans="1:23" ht="49.5" hidden="1" customHeight="1">
       <c r="A74" t="s">
-        <v>781</v>
+        <v>727</v>
       </c>
       <c r="B74" s="234" t="s">
         <v>109</v>
@@ -30234,9 +29912,9 @@
       </c>
       <c r="V74" s="235"/>
     </row>
-    <row r="75" spans="1:23" ht="57.75" customHeight="1">
+    <row r="75" spans="1:23" ht="57.75" hidden="1" customHeight="1">
       <c r="A75" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
       <c r="B75" s="234" t="s">
         <v>109</v>
@@ -30296,9 +29974,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="69.75" customHeight="1">
+    <row r="76" spans="1:23" ht="69.75" hidden="1" customHeight="1">
       <c r="A76" t="s">
-        <v>783</v>
+        <v>729</v>
       </c>
       <c r="B76" s="234" t="s">
         <v>109</v>
@@ -30358,9 +30036,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="59.25" customHeight="1">
+    <row r="77" spans="1:23" ht="59.25" hidden="1" customHeight="1">
       <c r="A77" t="s">
-        <v>784</v>
+        <v>730</v>
       </c>
       <c r="B77" s="234" t="s">
         <v>109</v>
@@ -30420,9 +30098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="60" customHeight="1">
+    <row r="78" spans="1:23" ht="60" hidden="1" customHeight="1">
       <c r="A78" t="s">
-        <v>785</v>
+        <v>731</v>
       </c>
       <c r="B78" s="234" t="s">
         <v>109</v>
@@ -30480,9 +30158,9 @@
       </c>
       <c r="V78" s="235"/>
     </row>
-    <row r="79" spans="1:23" ht="57.75" customHeight="1">
+    <row r="79" spans="1:23" ht="57.75" hidden="1" customHeight="1">
       <c r="A79" t="s">
-        <v>786</v>
+        <v>732</v>
       </c>
       <c r="B79" s="234" t="s">
         <v>109</v>
@@ -30540,9 +30218,9 @@
       </c>
       <c r="V79" s="235"/>
     </row>
-    <row r="80" spans="1:23" ht="15.75">
+    <row r="80" spans="1:23" ht="15.75" hidden="1">
       <c r="A80" t="s">
-        <v>787</v>
+        <v>733</v>
       </c>
       <c r="B80" s="212" t="s">
         <v>109</v>
@@ -30605,9 +30283,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.75">
+    <row r="81" spans="1:23" ht="15.75" hidden="1">
       <c r="A81" t="s">
-        <v>788</v>
+        <v>734</v>
       </c>
       <c r="B81" s="212" t="s">
         <v>109</v>
@@ -30670,9 +30348,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.75">
+    <row r="82" spans="1:23" ht="15.75" hidden="1">
       <c r="A82" t="s">
-        <v>789</v>
+        <v>735</v>
       </c>
       <c r="B82" s="212" t="s">
         <v>109</v>
@@ -30735,9 +30413,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="31.5">
+    <row r="83" spans="1:23" ht="31.5" hidden="1">
       <c r="A83" t="s">
-        <v>790</v>
+        <v>736</v>
       </c>
       <c r="B83" s="212" t="s">
         <v>109</v>
@@ -30798,9 +30476,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75">
+    <row r="84" spans="1:23" ht="15.75" hidden="1">
       <c r="A84" t="s">
-        <v>791</v>
+        <v>737</v>
       </c>
       <c r="B84" s="212" t="s">
         <v>109</v>
@@ -30861,9 +30539,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.75">
+    <row r="85" spans="1:23" ht="15.75" hidden="1">
       <c r="A85" t="s">
-        <v>792</v>
+        <v>738</v>
       </c>
       <c r="B85" s="212" t="s">
         <v>109</v>
@@ -30922,9 +30600,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.75">
+    <row r="86" spans="1:23" ht="15.75" hidden="1">
       <c r="A86" t="s">
-        <v>793</v>
+        <v>739</v>
       </c>
       <c r="B86" s="208" t="s">
         <v>109</v>
@@ -30986,9 +30664,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75">
+    <row r="87" spans="1:23" ht="15.75" hidden="1">
       <c r="A87" t="s">
-        <v>794</v>
+        <v>740</v>
       </c>
       <c r="B87" s="208" t="s">
         <v>109</v>
@@ -31050,9 +30728,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15.75">
+    <row r="88" spans="1:23" ht="15.75" hidden="1">
       <c r="A88" t="s">
-        <v>795</v>
+        <v>741</v>
       </c>
       <c r="B88" s="208" t="s">
         <v>109</v>
@@ -31114,9 +30792,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="31.5">
+    <row r="89" spans="1:23" ht="31.5" hidden="1">
       <c r="A89" t="s">
-        <v>796</v>
+        <v>742</v>
       </c>
       <c r="B89" s="208" t="s">
         <v>109</v>
@@ -31176,9 +30854,9 @@
       </c>
       <c r="V89" s="210"/>
     </row>
-    <row r="90" spans="1:23" ht="15.75">
+    <row r="90" spans="1:23" ht="15.75" hidden="1">
       <c r="A90" t="s">
-        <v>797</v>
+        <v>743</v>
       </c>
       <c r="B90" s="208" t="s">
         <v>109</v>
@@ -31238,9 +30916,9 @@
       </c>
       <c r="V90" s="210"/>
     </row>
-    <row r="91" spans="1:23" ht="15.75">
+    <row r="91" spans="1:23" ht="15.75" hidden="1">
       <c r="A91" t="s">
-        <v>798</v>
+        <v>744</v>
       </c>
       <c r="B91" s="208" t="s">
         <v>109</v>
@@ -31298,9 +30976,9 @@
       </c>
       <c r="V91" s="210"/>
     </row>
-    <row r="92" spans="1:23" ht="15.75">
+    <row r="92" spans="1:23" ht="15.75" hidden="1">
       <c r="A92" t="s">
-        <v>799</v>
+        <v>745</v>
       </c>
       <c r="B92" s="208" t="s">
         <v>109</v>
@@ -31360,9 +31038,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15.75">
+    <row r="93" spans="1:23" ht="15.75" hidden="1">
       <c r="A93" t="s">
-        <v>800</v>
+        <v>746</v>
       </c>
       <c r="B93" s="208" t="s">
         <v>109</v>
@@ -31422,9 +31100,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75">
+    <row r="94" spans="1:23" ht="15.75" hidden="1">
       <c r="A94" t="s">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="B94" s="208" t="s">
         <v>109</v>
@@ -31484,9 +31162,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="31.5">
+    <row r="95" spans="1:23" ht="31.5" hidden="1">
       <c r="A95" t="s">
-        <v>802</v>
+        <v>748</v>
       </c>
       <c r="B95" s="208" t="s">
         <v>109</v>
@@ -31544,9 +31222,9 @@
       </c>
       <c r="V95" s="210"/>
     </row>
-    <row r="96" spans="1:23" ht="15.75">
+    <row r="96" spans="1:23" ht="15.75" hidden="1">
       <c r="A96" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="B96" s="208" t="s">
         <v>109</v>
@@ -31604,9 +31282,9 @@
       </c>
       <c r="V96" s="210"/>
     </row>
-    <row r="97" spans="1:23" ht="15.75">
+    <row r="97" spans="1:23" ht="15.75" hidden="1">
       <c r="A97" t="s">
-        <v>804</v>
+        <v>750</v>
       </c>
       <c r="B97" s="208" t="s">
         <v>109</v>
@@ -31662,9 +31340,9 @@
       </c>
       <c r="V97" s="210"/>
     </row>
-    <row r="98" spans="1:23" ht="409.5">
+    <row r="98" spans="1:23" ht="409.5" hidden="1">
       <c r="A98" t="s">
-        <v>805</v>
+        <v>751</v>
       </c>
       <c r="B98" s="234" t="s">
         <v>109</v>
@@ -31722,9 +31400,9 @@
       </c>
       <c r="V98" s="235"/>
     </row>
-    <row r="99" spans="1:23" ht="409.5">
+    <row r="99" spans="1:23" ht="409.5" hidden="1">
       <c r="A99" t="s">
-        <v>806</v>
+        <v>752</v>
       </c>
       <c r="B99" s="234" t="s">
         <v>109</v>
@@ -31784,9 +31462,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="409.5">
+    <row r="100" spans="1:23" ht="409.5" hidden="1">
       <c r="A100" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="B100" s="234" t="s">
         <v>109</v>
@@ -31846,9 +31524,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="409.5">
+    <row r="101" spans="1:23" ht="409.5" hidden="1">
       <c r="A101" t="s">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="B101" s="234" t="s">
         <v>109</v>
@@ -31908,9 +31586,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="409.5">
+    <row r="102" spans="1:23" ht="409.5" hidden="1">
       <c r="A102" t="s">
-        <v>809</v>
+        <v>755</v>
       </c>
       <c r="B102" s="234" t="s">
         <v>109</v>
@@ -31968,9 +31646,9 @@
       </c>
       <c r="V102" s="235"/>
     </row>
-    <row r="103" spans="1:23" ht="409.5">
+    <row r="103" spans="1:23" ht="409.5" hidden="1">
       <c r="A103" t="s">
-        <v>810</v>
+        <v>756</v>
       </c>
       <c r="B103" s="234" t="s">
         <v>109</v>
@@ -32028,9 +31706,9 @@
       </c>
       <c r="V103" s="235"/>
     </row>
-    <row r="104" spans="1:23" ht="31.5">
+    <row r="104" spans="1:23" ht="31.5" hidden="1">
       <c r="A104" t="s">
-        <v>811</v>
+        <v>757</v>
       </c>
       <c r="B104" s="282" t="s">
         <v>123</v>
@@ -32094,9 +31772,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="31.5">
+    <row r="105" spans="1:23" ht="31.5" hidden="1">
       <c r="A105" t="s">
-        <v>812</v>
+        <v>758</v>
       </c>
       <c r="B105" s="285" t="s">
         <v>123</v>
@@ -32160,9 +31838,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="31.5">
+    <row r="106" spans="1:23" ht="31.5" hidden="1">
       <c r="A106" t="s">
-        <v>813</v>
+        <v>759</v>
       </c>
       <c r="B106" s="285" t="s">
         <v>123</v>
@@ -32226,9 +31904,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="31.5">
+    <row r="107" spans="1:23" ht="31.5" hidden="1">
       <c r="A107" t="s">
-        <v>814</v>
+        <v>760</v>
       </c>
       <c r="B107" s="285" t="s">
         <v>123</v>
@@ -32292,9 +31970,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="31.5">
+    <row r="108" spans="1:23" ht="31.5" hidden="1">
       <c r="A108" t="s">
-        <v>815</v>
+        <v>761</v>
       </c>
       <c r="B108" s="285" t="s">
         <v>123</v>
@@ -32358,9 +32036,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="31.5">
+    <row r="109" spans="1:23" ht="31.5" hidden="1">
       <c r="A109" t="s">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="B109" s="285" t="s">
         <v>123</v>
@@ -32424,9 +32102,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15.75">
+    <row r="110" spans="1:23" ht="15.75" hidden="1">
       <c r="A110" t="s">
-        <v>817</v>
+        <v>763</v>
       </c>
       <c r="B110" s="327" t="s">
         <v>123</v>
@@ -32493,9 +32171,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15.75">
+    <row r="111" spans="1:23" ht="15.75" hidden="1">
       <c r="A111" t="s">
-        <v>818</v>
+        <v>764</v>
       </c>
       <c r="B111" s="327" t="s">
         <v>123</v>
@@ -32562,9 +32240,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.75">
+    <row r="112" spans="1:23" ht="15.75" hidden="1">
       <c r="A112" t="s">
-        <v>819</v>
+        <v>765</v>
       </c>
       <c r="B112" s="327" t="s">
         <v>123</v>
@@ -32631,9 +32309,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="31.5">
+    <row r="113" spans="1:23" ht="31.5" hidden="1">
       <c r="A113" t="s">
-        <v>820</v>
+        <v>766</v>
       </c>
       <c r="B113" s="327" t="s">
         <v>123</v>
@@ -32700,9 +32378,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15.75">
+    <row r="114" spans="1:23" ht="15.75" hidden="1">
       <c r="A114" t="s">
-        <v>821</v>
+        <v>767</v>
       </c>
       <c r="B114" s="327" t="s">
         <v>123</v>
@@ -32769,9 +32447,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15.75">
+    <row r="115" spans="1:23" ht="15.75" hidden="1">
       <c r="A115" t="s">
-        <v>822</v>
+        <v>768</v>
       </c>
       <c r="B115" s="327" t="s">
         <v>123</v>
@@ -32838,9 +32516,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15.75">
+    <row r="116" spans="1:23" ht="15.75" hidden="1">
       <c r="A116" t="s">
-        <v>823</v>
+        <v>769</v>
       </c>
       <c r="B116" s="285" t="s">
         <v>123</v>
@@ -32904,9 +32582,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15.75">
+    <row r="117" spans="1:23" ht="15.75" hidden="1">
       <c r="A117" t="s">
-        <v>824</v>
+        <v>770</v>
       </c>
       <c r="B117" s="285" t="s">
         <v>123</v>
@@ -32970,9 +32648,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15.75">
+    <row r="118" spans="1:23" ht="15.75" hidden="1">
       <c r="A118" t="s">
-        <v>825</v>
+        <v>771</v>
       </c>
       <c r="B118" s="285" t="s">
         <v>123</v>
@@ -33036,9 +32714,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="31.5">
+    <row r="119" spans="1:23" ht="31.5" hidden="1">
       <c r="A119" t="s">
-        <v>826</v>
+        <v>772</v>
       </c>
       <c r="B119" s="285" t="s">
         <v>123</v>
@@ -33102,9 +32780,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15.75">
+    <row r="120" spans="1:23" ht="15.75" hidden="1">
       <c r="A120" t="s">
-        <v>827</v>
+        <v>773</v>
       </c>
       <c r="B120" s="285" t="s">
         <v>123</v>
@@ -33168,9 +32846,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15.75">
+    <row r="121" spans="1:23" ht="15.75" hidden="1">
       <c r="A121" t="s">
-        <v>828</v>
+        <v>774</v>
       </c>
       <c r="B121" s="285" t="s">
         <v>123</v>
@@ -33234,9 +32912,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.75">
+    <row r="122" spans="1:23" ht="15.75" hidden="1">
       <c r="A122" t="s">
-        <v>829</v>
+        <v>775</v>
       </c>
       <c r="B122" s="285" t="s">
         <v>123</v>
@@ -33300,9 +32978,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.75">
+    <row r="123" spans="1:23" ht="15.75" hidden="1">
       <c r="A123" t="s">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="B123" s="285" t="s">
         <v>123</v>
@@ -33366,9 +33044,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.75">
+    <row r="124" spans="1:23" ht="15.75" hidden="1">
       <c r="A124" t="s">
-        <v>831</v>
+        <v>777</v>
       </c>
       <c r="B124" s="285" t="s">
         <v>123</v>
@@ -33432,9 +33110,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="31.5">
+    <row r="125" spans="1:23" ht="31.5" hidden="1">
       <c r="A125" t="s">
-        <v>832</v>
+        <v>778</v>
       </c>
       <c r="B125" s="285" t="s">
         <v>123</v>
@@ -33498,9 +33176,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.75">
+    <row r="126" spans="1:23" ht="15.75" hidden="1">
       <c r="A126" t="s">
-        <v>833</v>
+        <v>779</v>
       </c>
       <c r="B126" s="285" t="s">
         <v>123</v>
@@ -33564,9 +33242,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.75">
+    <row r="127" spans="1:23" ht="15.75" hidden="1">
       <c r="A127" t="s">
-        <v>834</v>
+        <v>780</v>
       </c>
       <c r="B127" s="285" t="s">
         <v>123</v>
@@ -33630,9 +33308,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="31.5">
+    <row r="128" spans="1:23" ht="31.5" hidden="1">
       <c r="A128" t="s">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="B128" s="285" t="s">
         <v>123</v>
@@ -33696,9 +33374,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="31.5">
+    <row r="129" spans="1:22" ht="31.5" hidden="1">
       <c r="A129" t="s">
-        <v>836</v>
+        <v>782</v>
       </c>
       <c r="B129" s="285" t="s">
         <v>123</v>
@@ -33762,9 +33440,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="31.5">
+    <row r="130" spans="1:22" ht="31.5" hidden="1">
       <c r="A130" t="s">
-        <v>837</v>
+        <v>783</v>
       </c>
       <c r="B130" s="285" t="s">
         <v>123</v>
@@ -33828,9 +33506,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="31.5">
+    <row r="131" spans="1:22" ht="31.5" hidden="1">
       <c r="A131" t="s">
-        <v>838</v>
+        <v>784</v>
       </c>
       <c r="B131" s="285" t="s">
         <v>123</v>
@@ -33894,9 +33572,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="31.5">
+    <row r="132" spans="1:22" ht="31.5" hidden="1">
       <c r="A132" t="s">
-        <v>839</v>
+        <v>785</v>
       </c>
       <c r="B132" s="285" t="s">
         <v>123</v>
@@ -33960,9 +33638,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="31.5">
+    <row r="133" spans="1:22" ht="31.5" hidden="1">
       <c r="A133" t="s">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="B133" s="285" t="s">
         <v>123</v>
@@ -34026,9 +33704,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="15.75">
+    <row r="134" spans="1:22" ht="15.75" hidden="1">
       <c r="A134" t="s">
-        <v>841</v>
+        <v>787</v>
       </c>
       <c r="B134" s="285" t="s">
         <v>123</v>
@@ -34092,9 +33770,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="15.75">
+    <row r="135" spans="1:22" ht="15.75" hidden="1">
       <c r="A135" t="s">
-        <v>842</v>
+        <v>788</v>
       </c>
       <c r="B135" s="285" t="s">
         <v>123</v>
@@ -34158,9 +33836,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="15.75">
+    <row r="136" spans="1:22" ht="15.75" hidden="1">
       <c r="A136" t="s">
-        <v>843</v>
+        <v>789</v>
       </c>
       <c r="B136" s="285" t="s">
         <v>123</v>
@@ -34224,9 +33902,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="31.5">
+    <row r="137" spans="1:22" ht="31.5" hidden="1">
       <c r="A137" t="s">
-        <v>844</v>
+        <v>790</v>
       </c>
       <c r="B137" s="285" t="s">
         <v>123</v>
@@ -34290,9 +33968,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="15.75">
+    <row r="138" spans="1:22" ht="15.75" hidden="1">
       <c r="A138" t="s">
-        <v>845</v>
+        <v>791</v>
       </c>
       <c r="B138" s="285" t="s">
         <v>123</v>
@@ -34356,9 +34034,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="15.75">
+    <row r="139" spans="1:22" ht="15.75" hidden="1">
       <c r="A139" t="s">
-        <v>846</v>
+        <v>792</v>
       </c>
       <c r="B139" s="285" t="s">
         <v>123</v>
@@ -34422,9 +34100,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="15.75">
+    <row r="140" spans="1:22" ht="15.75" hidden="1">
       <c r="A140" t="s">
-        <v>847</v>
+        <v>793</v>
       </c>
       <c r="B140" s="285" t="s">
         <v>123</v>
@@ -34488,9 +34166,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="15.75">
+    <row r="141" spans="1:22" ht="15.75" hidden="1">
       <c r="A141" t="s">
-        <v>848</v>
+        <v>794</v>
       </c>
       <c r="B141" s="285" t="s">
         <v>123</v>
@@ -34554,9 +34232,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="15.75">
+    <row r="142" spans="1:22" ht="15.75" hidden="1">
       <c r="A142" t="s">
-        <v>849</v>
+        <v>795</v>
       </c>
       <c r="B142" s="285" t="s">
         <v>123</v>
@@ -34620,9 +34298,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="31.5">
+    <row r="143" spans="1:22" ht="31.5" hidden="1">
       <c r="A143" t="s">
-        <v>850</v>
+        <v>796</v>
       </c>
       <c r="B143" s="285" t="s">
         <v>123</v>
@@ -34686,9 +34364,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="15.75">
+    <row r="144" spans="1:22" ht="15.75" hidden="1">
       <c r="A144" t="s">
-        <v>851</v>
+        <v>797</v>
       </c>
       <c r="B144" s="285" t="s">
         <v>123</v>
@@ -34752,9 +34430,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.75">
+    <row r="145" spans="1:23" ht="15.75" hidden="1">
       <c r="A145" t="s">
-        <v>852</v>
+        <v>798</v>
       </c>
       <c r="B145" s="285" t="s">
         <v>123</v>
@@ -34819,8 +34497,8 @@
       </c>
     </row>
     <row r="146" spans="1:23" ht="15.75">
-      <c r="A146" t="s">
-        <v>853</v>
+      <c r="A146">
+        <v>1</v>
       </c>
       <c r="B146" s="147" t="s">
         <v>139</v>
@@ -34881,8 +34559,8 @@
       </c>
     </row>
     <row r="147" spans="1:23" ht="15.75">
-      <c r="A147" t="s">
-        <v>854</v>
+      <c r="A147">
+        <v>1</v>
       </c>
       <c r="B147" s="147" t="s">
         <v>139</v>
@@ -34943,8 +34621,8 @@
       </c>
     </row>
     <row r="148" spans="1:23" ht="15.75">
-      <c r="A148" t="s">
-        <v>855</v>
+      <c r="A148">
+        <v>1</v>
       </c>
       <c r="B148" s="147" t="s">
         <v>139</v>
@@ -35005,8 +34683,8 @@
       </c>
     </row>
     <row r="149" spans="1:23" ht="31.5">
-      <c r="A149" t="s">
-        <v>856</v>
+      <c r="A149">
+        <v>1</v>
       </c>
       <c r="B149" s="147" t="s">
         <v>139</v>
@@ -35065,8 +34743,8 @@
       <c r="V149" s="210"/>
     </row>
     <row r="150" spans="1:23" ht="15.75">
-      <c r="A150" t="s">
-        <v>857</v>
+      <c r="A150">
+        <v>1</v>
       </c>
       <c r="B150" s="147" t="s">
         <v>139</v>
@@ -35125,8 +34803,8 @@
       <c r="V150" s="210"/>
     </row>
     <row r="151" spans="1:23" ht="15.75">
-      <c r="A151" t="s">
-        <v>858</v>
+      <c r="A151">
+        <v>1</v>
       </c>
       <c r="B151" s="147" t="s">
         <v>139</v>
@@ -35183,8 +34861,8 @@
       <c r="V151" s="210"/>
     </row>
     <row r="152" spans="1:23" ht="15.75">
-      <c r="A152" t="s">
-        <v>859</v>
+      <c r="A152">
+        <v>1</v>
       </c>
       <c r="B152" s="147" t="s">
         <v>139</v>
@@ -35248,8 +34926,8 @@
       </c>
     </row>
     <row r="153" spans="1:23" ht="15.75">
-      <c r="A153" t="s">
-        <v>860</v>
+      <c r="A153">
+        <v>1</v>
       </c>
       <c r="B153" s="147" t="s">
         <v>139</v>
@@ -35311,8 +34989,8 @@
       <c r="W153" s="346"/>
     </row>
     <row r="154" spans="1:23" ht="15.75">
-      <c r="A154" t="s">
-        <v>861</v>
+      <c r="A154">
+        <v>1</v>
       </c>
       <c r="B154" s="147" t="s">
         <v>139</v>
@@ -35374,8 +35052,8 @@
       <c r="W154" s="346"/>
     </row>
     <row r="155" spans="1:23" ht="31.5">
-      <c r="A155" t="s">
-        <v>862</v>
+      <c r="A155">
+        <v>1</v>
       </c>
       <c r="B155" s="147" t="s">
         <v>139</v>
@@ -35435,8 +35113,8 @@
       <c r="W155" s="346"/>
     </row>
     <row r="156" spans="1:23" ht="15.75">
-      <c r="A156" t="s">
-        <v>863</v>
+      <c r="A156">
+        <v>1</v>
       </c>
       <c r="B156" s="147" t="s">
         <v>139</v>
@@ -35496,8 +35174,8 @@
       <c r="W156" s="346"/>
     </row>
     <row r="157" spans="1:23" ht="15.75">
-      <c r="A157" t="s">
-        <v>864</v>
+      <c r="A157">
+        <v>1</v>
       </c>
       <c r="B157" s="147" t="s">
         <v>139</v>
@@ -35555,8 +35233,8 @@
       <c r="W157" s="346"/>
     </row>
     <row r="158" spans="1:23" ht="15.75">
-      <c r="A158" t="s">
-        <v>865</v>
+      <c r="A158">
+        <v>1</v>
       </c>
       <c r="B158" s="147" t="s">
         <v>139</v>
@@ -35615,8 +35293,8 @@
       <c r="V158" s="210"/>
     </row>
     <row r="159" spans="1:23" ht="15.75">
-      <c r="A159" t="s">
-        <v>866</v>
+      <c r="A159">
+        <v>1</v>
       </c>
       <c r="B159" s="147" t="s">
         <v>139</v>
@@ -35677,8 +35355,8 @@
       </c>
     </row>
     <row r="160" spans="1:23" ht="15.75">
-      <c r="A160" t="s">
-        <v>867</v>
+      <c r="A160">
+        <v>1</v>
       </c>
       <c r="B160" s="147" t="s">
         <v>139</v>
@@ -35739,8 +35417,8 @@
       </c>
     </row>
     <row r="161" spans="1:23" ht="15.75">
-      <c r="A161" t="s">
-        <v>868</v>
+      <c r="A161">
+        <v>1</v>
       </c>
       <c r="B161" s="147" t="s">
         <v>139</v>
@@ -35801,8 +35479,8 @@
       </c>
     </row>
     <row r="162" spans="1:23" ht="31.5">
-      <c r="A162" t="s">
-        <v>869</v>
+      <c r="A162">
+        <v>1</v>
       </c>
       <c r="B162" s="147" t="s">
         <v>139</v>
@@ -35861,8 +35539,8 @@
       <c r="V162" s="210"/>
     </row>
     <row r="163" spans="1:23" ht="15.75">
-      <c r="A163" t="s">
-        <v>870</v>
+      <c r="A163">
+        <v>1</v>
       </c>
       <c r="B163" s="147" t="s">
         <v>139</v>
@@ -35921,8 +35599,8 @@
       <c r="V163" s="210"/>
     </row>
     <row r="164" spans="1:23" ht="15.75">
-      <c r="A164" t="s">
-        <v>871</v>
+      <c r="A164">
+        <v>1</v>
       </c>
       <c r="B164" s="147" t="s">
         <v>139</v>
@@ -35984,8 +35662,8 @@
       </c>
     </row>
     <row r="165" spans="1:23" ht="15.75">
-      <c r="A165" t="s">
-        <v>872</v>
+      <c r="A165">
+        <v>1</v>
       </c>
       <c r="B165" s="147" t="s">
         <v>139</v>
@@ -36047,8 +35725,8 @@
       <c r="W165" s="346"/>
     </row>
     <row r="166" spans="1:23" ht="15.75">
-      <c r="A166" t="s">
-        <v>873</v>
+      <c r="A166">
+        <v>1</v>
       </c>
       <c r="B166" s="147" t="s">
         <v>139</v>
@@ -36110,8 +35788,8 @@
       <c r="W166" s="346"/>
     </row>
     <row r="167" spans="1:23" ht="15.75">
-      <c r="A167" t="s">
-        <v>874</v>
+      <c r="A167">
+        <v>1</v>
       </c>
       <c r="B167" s="147" t="s">
         <v>139</v>
@@ -36173,8 +35851,8 @@
       <c r="W167" s="346"/>
     </row>
     <row r="168" spans="1:23" ht="31.5">
-      <c r="A168" t="s">
-        <v>875</v>
+      <c r="A168">
+        <v>1</v>
       </c>
       <c r="B168" s="147" t="s">
         <v>139</v>
@@ -36234,8 +35912,8 @@
       <c r="W168" s="346"/>
     </row>
     <row r="169" spans="1:23" ht="15.75">
-      <c r="A169" t="s">
-        <v>876</v>
+      <c r="A169">
+        <v>1</v>
       </c>
       <c r="B169" s="147" t="s">
         <v>139</v>
@@ -36295,8 +35973,8 @@
       <c r="W169" s="346"/>
     </row>
     <row r="170" spans="1:23" ht="15.75">
-      <c r="A170" t="s">
-        <v>877</v>
+      <c r="A170">
+        <v>1</v>
       </c>
       <c r="B170" s="147" t="s">
         <v>139</v>
@@ -36360,8 +36038,8 @@
       </c>
     </row>
     <row r="171" spans="1:23" ht="15.75">
-      <c r="A171" t="s">
-        <v>878</v>
+      <c r="A171">
+        <v>1</v>
       </c>
       <c r="B171" s="147" t="s">
         <v>139</v>
@@ -36423,8 +36101,8 @@
       <c r="W171" s="346"/>
     </row>
     <row r="172" spans="1:23" ht="15.75">
-      <c r="A172" t="s">
-        <v>879</v>
+      <c r="A172">
+        <v>1</v>
       </c>
       <c r="B172" s="147" t="s">
         <v>139</v>
@@ -36486,8 +36164,8 @@
       <c r="W172" s="346"/>
     </row>
     <row r="173" spans="1:23" ht="31.5">
-      <c r="A173" t="s">
-        <v>880</v>
+      <c r="A173">
+        <v>1</v>
       </c>
       <c r="B173" s="147" t="s">
         <v>139</v>
@@ -36547,8 +36225,8 @@
       <c r="W173" s="346"/>
     </row>
     <row r="174" spans="1:23" ht="15.75">
-      <c r="A174" t="s">
-        <v>881</v>
+      <c r="A174">
+        <v>1</v>
       </c>
       <c r="B174" s="147" t="s">
         <v>139</v>
@@ -36608,8 +36286,8 @@
       <c r="W174" s="346"/>
     </row>
     <row r="175" spans="1:23" ht="15.75">
-      <c r="A175" t="s">
-        <v>882</v>
+      <c r="A175">
+        <v>1</v>
       </c>
       <c r="B175" s="147" t="s">
         <v>139</v>
@@ -36667,8 +36345,8 @@
       <c r="W175" s="346"/>
     </row>
     <row r="176" spans="1:23" ht="15.75">
-      <c r="A176" t="s">
-        <v>883</v>
+      <c r="A176">
+        <v>1</v>
       </c>
       <c r="B176" s="147" t="s">
         <v>139</v>
@@ -36732,8 +36410,8 @@
       </c>
     </row>
     <row r="177" spans="1:23" ht="15.75">
-      <c r="A177" t="s">
-        <v>884</v>
+      <c r="A177">
+        <v>1</v>
       </c>
       <c r="B177" s="147" t="s">
         <v>139</v>
@@ -36795,8 +36473,8 @@
       <c r="W177" s="346"/>
     </row>
     <row r="178" spans="1:23" ht="15.75">
-      <c r="A178" t="s">
-        <v>885</v>
+      <c r="A178">
+        <v>1</v>
       </c>
       <c r="B178" s="147" t="s">
         <v>139</v>
@@ -36858,8 +36536,8 @@
       <c r="W178" s="346"/>
     </row>
     <row r="179" spans="1:23" ht="31.5">
-      <c r="A179" t="s">
-        <v>886</v>
+      <c r="A179">
+        <v>1</v>
       </c>
       <c r="B179" s="147" t="s">
         <v>139</v>
@@ -36919,8 +36597,8 @@
       <c r="W179" s="346"/>
     </row>
     <row r="180" spans="1:23" ht="15.75">
-      <c r="A180" t="s">
-        <v>887</v>
+      <c r="A180">
+        <v>1</v>
       </c>
       <c r="B180" s="147" t="s">
         <v>139</v>
@@ -36980,8 +36658,8 @@
       <c r="W180" s="346"/>
     </row>
     <row r="181" spans="1:23" ht="15.75">
-      <c r="A181" t="s">
-        <v>888</v>
+      <c r="A181">
+        <v>1</v>
       </c>
       <c r="B181" s="147" t="s">
         <v>139</v>
@@ -37039,8 +36717,8 @@
       <c r="W181" s="346"/>
     </row>
     <row r="182" spans="1:23" ht="15.75">
-      <c r="A182" t="s">
-        <v>889</v>
+      <c r="A182">
+        <v>1</v>
       </c>
       <c r="B182" s="147" t="s">
         <v>139</v>
@@ -37104,8 +36782,8 @@
       </c>
     </row>
     <row r="183" spans="1:23" ht="15.75">
-      <c r="A183" t="s">
-        <v>890</v>
+      <c r="A183">
+        <v>1</v>
       </c>
       <c r="B183" s="147" t="s">
         <v>139</v>
@@ -37167,8 +36845,8 @@
       <c r="W183" s="346"/>
     </row>
     <row r="184" spans="1:23" ht="15.75">
-      <c r="A184" t="s">
-        <v>891</v>
+      <c r="A184">
+        <v>1</v>
       </c>
       <c r="B184" s="147" t="s">
         <v>139</v>
@@ -37230,8 +36908,8 @@
       <c r="W184" s="346"/>
     </row>
     <row r="185" spans="1:23" ht="31.5">
-      <c r="A185" t="s">
-        <v>892</v>
+      <c r="A185">
+        <v>1</v>
       </c>
       <c r="B185" s="147" t="s">
         <v>139</v>
@@ -37291,8 +36969,8 @@
       <c r="W185" s="346"/>
     </row>
     <row r="186" spans="1:23" ht="15.75">
-      <c r="A186" t="s">
-        <v>893</v>
+      <c r="A186">
+        <v>1</v>
       </c>
       <c r="B186" s="147" t="s">
         <v>139</v>
@@ -37352,8 +37030,8 @@
       <c r="W186" s="346"/>
     </row>
     <row r="187" spans="1:23" ht="15.75">
-      <c r="A187" t="s">
-        <v>894</v>
+      <c r="A187">
+        <v>1</v>
       </c>
       <c r="B187" s="147" t="s">
         <v>139</v>
@@ -37411,8 +37089,8 @@
       <c r="W187" s="346"/>
     </row>
     <row r="188" spans="1:23" ht="15.75">
-      <c r="A188" t="s">
-        <v>895</v>
+      <c r="A188">
+        <v>1</v>
       </c>
       <c r="B188" s="147" t="s">
         <v>139</v>
@@ -37473,8 +37151,8 @@
       </c>
     </row>
     <row r="189" spans="1:23" ht="15.75">
-      <c r="A189" t="s">
-        <v>896</v>
+      <c r="A189">
+        <v>1</v>
       </c>
       <c r="B189" s="147" t="s">
         <v>139</v>
@@ -37535,8 +37213,8 @@
       </c>
     </row>
     <row r="190" spans="1:23" ht="15.75">
-      <c r="A190" t="s">
-        <v>897</v>
+      <c r="A190">
+        <v>1</v>
       </c>
       <c r="B190" s="147" t="s">
         <v>139</v>
@@ -37597,8 +37275,8 @@
       </c>
     </row>
     <row r="191" spans="1:23" ht="31.5">
-      <c r="A191" t="s">
-        <v>898</v>
+      <c r="A191">
+        <v>1</v>
       </c>
       <c r="B191" s="147" t="s">
         <v>139</v>
@@ -37657,8 +37335,8 @@
       <c r="V191" s="210"/>
     </row>
     <row r="192" spans="1:23" ht="15.75">
-      <c r="A192" t="s">
-        <v>899</v>
+      <c r="A192">
+        <v>1</v>
       </c>
       <c r="B192" s="147" t="s">
         <v>139</v>
@@ -37717,8 +37395,8 @@
       <c r="V192" s="210"/>
     </row>
     <row r="193" spans="1:22" ht="15.75">
-      <c r="A193" t="s">
-        <v>900</v>
+      <c r="A193">
+        <v>1</v>
       </c>
       <c r="B193" s="147" t="s">
         <v>139</v>
@@ -37775,8 +37453,8 @@
       <c r="V193" s="210"/>
     </row>
     <row r="194" spans="1:22" ht="15.75">
-      <c r="A194" t="s">
-        <v>901</v>
+      <c r="A194">
+        <v>1</v>
       </c>
       <c r="B194" s="147" t="s">
         <v>139</v>
@@ -37837,8 +37515,8 @@
       </c>
     </row>
     <row r="195" spans="1:22" ht="15.75">
-      <c r="A195" t="s">
-        <v>902</v>
+      <c r="A195">
+        <v>1</v>
       </c>
       <c r="B195" s="147" t="s">
         <v>139</v>
@@ -37899,8 +37577,8 @@
       </c>
     </row>
     <row r="196" spans="1:22" ht="15.75">
-      <c r="A196" t="s">
-        <v>903</v>
+      <c r="A196">
+        <v>1</v>
       </c>
       <c r="B196" s="147" t="s">
         <v>139</v>
@@ -37961,8 +37639,8 @@
       </c>
     </row>
     <row r="197" spans="1:22" ht="31.5">
-      <c r="A197" t="s">
-        <v>904</v>
+      <c r="A197">
+        <v>1</v>
       </c>
       <c r="B197" s="147" t="s">
         <v>139</v>
@@ -38021,8 +37699,8 @@
       <c r="V197" s="210"/>
     </row>
     <row r="198" spans="1:22" ht="15.75">
-      <c r="A198" t="s">
-        <v>905</v>
+      <c r="A198">
+        <v>1</v>
       </c>
       <c r="B198" s="147" t="s">
         <v>139</v>
@@ -38081,8 +37759,8 @@
       <c r="V198" s="210"/>
     </row>
     <row r="199" spans="1:22" ht="15.75">
-      <c r="A199" t="s">
-        <v>906</v>
+      <c r="A199">
+        <v>1</v>
       </c>
       <c r="B199" s="147" t="s">
         <v>139</v>
@@ -38138,9 +37816,9 @@
       </c>
       <c r="V199" s="210"/>
     </row>
-    <row r="200" spans="1:22" ht="15.75">
+    <row r="200" spans="1:22" ht="15.75" hidden="1">
       <c r="A200" t="s">
-        <v>907</v>
+        <v>799</v>
       </c>
       <c r="B200" s="225" t="s">
         <v>149</v>
@@ -38200,9 +37878,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="15.75">
+    <row r="201" spans="1:22" ht="15.75" hidden="1">
       <c r="A201" t="s">
-        <v>908</v>
+        <v>800</v>
       </c>
       <c r="B201" s="225" t="s">
         <v>149</v>
@@ -38262,9 +37940,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="15.75">
+    <row r="202" spans="1:22" ht="15.75" hidden="1">
       <c r="A202" t="s">
-        <v>909</v>
+        <v>801</v>
       </c>
       <c r="B202" s="225" t="s">
         <v>149</v>
@@ -38324,9 +38002,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="31.5">
+    <row r="203" spans="1:22" ht="31.5" hidden="1">
       <c r="A203" t="s">
-        <v>910</v>
+        <v>802</v>
       </c>
       <c r="B203" s="225" t="s">
         <v>149</v>
@@ -38384,9 +38062,9 @@
       </c>
       <c r="V203" s="243"/>
     </row>
-    <row r="204" spans="1:22" ht="15.75">
+    <row r="204" spans="1:22" ht="15.75" hidden="1">
       <c r="A204" t="s">
-        <v>911</v>
+        <v>803</v>
       </c>
       <c r="B204" s="225" t="s">
         <v>149</v>
@@ -38444,9 +38122,9 @@
       </c>
       <c r="V204" s="243"/>
     </row>
-    <row r="205" spans="1:22" ht="15.75">
+    <row r="205" spans="1:22" ht="15.75" hidden="1">
       <c r="A205" t="s">
-        <v>912</v>
+        <v>804</v>
       </c>
       <c r="B205" s="225" t="s">
         <v>149</v>
@@ -38502,9 +38180,9 @@
       </c>
       <c r="V205" s="243"/>
     </row>
-    <row r="206" spans="1:22" ht="15.75">
+    <row r="206" spans="1:22" ht="15.75" hidden="1">
       <c r="A206" t="s">
-        <v>913</v>
+        <v>805</v>
       </c>
       <c r="B206" s="225" t="s">
         <v>149</v>
@@ -38564,9 +38242,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="15.75">
+    <row r="207" spans="1:22" ht="15.75" hidden="1">
       <c r="A207" t="s">
-        <v>914</v>
+        <v>806</v>
       </c>
       <c r="B207" s="225" t="s">
         <v>149</v>
@@ -38626,9 +38304,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="15.75">
+    <row r="208" spans="1:22" ht="15.75" hidden="1">
       <c r="A208" t="s">
-        <v>915</v>
+        <v>807</v>
       </c>
       <c r="B208" s="225" t="s">
         <v>149</v>
@@ -38688,9 +38366,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="31.5">
+    <row r="209" spans="1:23" ht="31.5" hidden="1">
       <c r="A209" t="s">
-        <v>916</v>
+        <v>808</v>
       </c>
       <c r="B209" s="225" t="s">
         <v>149</v>
@@ -38748,9 +38426,9 @@
       </c>
       <c r="V209" s="243"/>
     </row>
-    <row r="210" spans="1:23" ht="15.75">
+    <row r="210" spans="1:23" ht="15.75" hidden="1">
       <c r="A210" t="s">
-        <v>917</v>
+        <v>809</v>
       </c>
       <c r="B210" s="225" t="s">
         <v>149</v>
@@ -38808,9 +38486,9 @@
       </c>
       <c r="V210" s="243"/>
     </row>
-    <row r="211" spans="1:23" ht="15.75">
+    <row r="211" spans="1:23" ht="15.75" hidden="1">
       <c r="A211" t="s">
-        <v>918</v>
+        <v>810</v>
       </c>
       <c r="B211" s="225" t="s">
         <v>149</v>
@@ -38866,9 +38544,9 @@
       </c>
       <c r="V211" s="243"/>
     </row>
-    <row r="212" spans="1:23" ht="15.75">
+    <row r="212" spans="1:23" ht="15.75" hidden="1">
       <c r="A212" t="s">
-        <v>919</v>
+        <v>811</v>
       </c>
       <c r="B212" s="225" t="s">
         <v>149</v>
@@ -38928,9 +38606,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15.75">
+    <row r="213" spans="1:23" ht="15.75" hidden="1">
       <c r="A213" t="s">
-        <v>920</v>
+        <v>812</v>
       </c>
       <c r="B213" s="225" t="s">
         <v>149</v>
@@ -38990,9 +38668,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="15.75">
+    <row r="214" spans="1:23" ht="15.75" hidden="1">
       <c r="A214" t="s">
-        <v>921</v>
+        <v>813</v>
       </c>
       <c r="B214" s="225" t="s">
         <v>149</v>
@@ -39052,9 +38730,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="31.5">
+    <row r="215" spans="1:23" ht="31.5" hidden="1">
       <c r="A215" t="s">
-        <v>922</v>
+        <v>814</v>
       </c>
       <c r="B215" s="225" t="s">
         <v>149</v>
@@ -39112,9 +38790,9 @@
       </c>
       <c r="V215" s="243"/>
     </row>
-    <row r="216" spans="1:23" ht="15.75">
+    <row r="216" spans="1:23" ht="15.75" hidden="1">
       <c r="A216" t="s">
-        <v>923</v>
+        <v>815</v>
       </c>
       <c r="B216" s="225" t="s">
         <v>149</v>
@@ -39172,9 +38850,9 @@
       </c>
       <c r="V216" s="243"/>
     </row>
-    <row r="217" spans="1:23" ht="15.75">
+    <row r="217" spans="1:23" ht="15.75" hidden="1">
       <c r="A217" t="s">
-        <v>924</v>
+        <v>816</v>
       </c>
       <c r="B217" s="225" t="s">
         <v>149</v>
@@ -39230,9 +38908,9 @@
       </c>
       <c r="V217" s="243"/>
     </row>
-    <row r="218" spans="1:23" ht="15.75">
+    <row r="218" spans="1:23" ht="15.75" hidden="1">
       <c r="A218" t="s">
-        <v>925</v>
+        <v>817</v>
       </c>
       <c r="B218" s="225" t="s">
         <v>149</v>
@@ -39292,9 +38970,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="15.75">
+    <row r="219" spans="1:23" ht="15.75" hidden="1">
       <c r="A219" t="s">
-        <v>926</v>
+        <v>818</v>
       </c>
       <c r="B219" s="225" t="s">
         <v>149</v>
@@ -39354,9 +39032,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="15.75">
+    <row r="220" spans="1:23" ht="15.75" hidden="1">
       <c r="A220" t="s">
-        <v>927</v>
+        <v>819</v>
       </c>
       <c r="B220" s="225" t="s">
         <v>149</v>
@@ -39416,9 +39094,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="31.5">
+    <row r="221" spans="1:23" ht="31.5" hidden="1">
       <c r="A221" t="s">
-        <v>928</v>
+        <v>820</v>
       </c>
       <c r="B221" s="225" t="s">
         <v>149</v>
@@ -39476,9 +39154,9 @@
       </c>
       <c r="V221" s="243"/>
     </row>
-    <row r="222" spans="1:23" ht="15.75">
+    <row r="222" spans="1:23" ht="15.75" hidden="1">
       <c r="A222" t="s">
-        <v>929</v>
+        <v>821</v>
       </c>
       <c r="B222" s="225" t="s">
         <v>149</v>
@@ -39536,9 +39214,9 @@
       </c>
       <c r="V222" s="243"/>
     </row>
-    <row r="223" spans="1:23" ht="15.75">
+    <row r="223" spans="1:23" ht="15.75" hidden="1">
       <c r="A223" t="s">
-        <v>930</v>
+        <v>822</v>
       </c>
       <c r="B223" s="225" t="s">
         <v>149</v>
@@ -39594,9 +39272,9 @@
       </c>
       <c r="V223" s="243"/>
     </row>
-    <row r="224" spans="1:23" ht="15.75">
+    <row r="224" spans="1:23" ht="15.75" hidden="1">
       <c r="A224" t="s">
-        <v>931</v>
+        <v>823</v>
       </c>
       <c r="B224" s="333" t="s">
         <v>149</v>
@@ -39659,9 +39337,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15.75">
+    <row r="225" spans="1:23" ht="15.75" hidden="1">
       <c r="A225" t="s">
-        <v>932</v>
+        <v>824</v>
       </c>
       <c r="B225" s="333" t="s">
         <v>149</v>
@@ -39724,9 +39402,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15.75">
+    <row r="226" spans="1:23" ht="15.75" hidden="1">
       <c r="A226" t="s">
-        <v>933</v>
+        <v>825</v>
       </c>
       <c r="B226" s="333" t="s">
         <v>149</v>
@@ -39789,9 +39467,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="31.5">
+    <row r="227" spans="1:23" ht="31.5" hidden="1">
       <c r="A227" t="s">
-        <v>934</v>
+        <v>826</v>
       </c>
       <c r="B227" s="333" t="s">
         <v>149</v>
@@ -39852,9 +39530,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15.75">
+    <row r="228" spans="1:23" ht="15.75" hidden="1">
       <c r="A228" t="s">
-        <v>935</v>
+        <v>827</v>
       </c>
       <c r="B228" s="333" t="s">
         <v>149</v>
@@ -39915,9 +39593,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="15.75">
+    <row r="229" spans="1:23" ht="15.75" hidden="1">
       <c r="A229" t="s">
-        <v>936</v>
+        <v>828</v>
       </c>
       <c r="B229" s="333" t="s">
         <v>149</v>
@@ -39976,9 +39654,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15.75">
+    <row r="230" spans="1:23" ht="15.75" hidden="1">
       <c r="A230" t="s">
-        <v>937</v>
+        <v>829</v>
       </c>
       <c r="B230" s="225" t="s">
         <v>149</v>
@@ -40038,9 +39716,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15.75">
+    <row r="231" spans="1:23" ht="15.75" hidden="1">
       <c r="A231" t="s">
-        <v>938</v>
+        <v>830</v>
       </c>
       <c r="B231" s="225" t="s">
         <v>149</v>
@@ -40100,9 +39778,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15.75">
+    <row r="232" spans="1:23" ht="15.75" hidden="1">
       <c r="A232" t="s">
-        <v>939</v>
+        <v>831</v>
       </c>
       <c r="B232" s="225" t="s">
         <v>149</v>
@@ -40162,9 +39840,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="31.5">
+    <row r="233" spans="1:23" ht="31.5" hidden="1">
       <c r="A233" t="s">
-        <v>940</v>
+        <v>832</v>
       </c>
       <c r="B233" s="225" t="s">
         <v>149</v>
@@ -40222,9 +39900,9 @@
       </c>
       <c r="V233" s="243"/>
     </row>
-    <row r="234" spans="1:23" ht="15.75">
+    <row r="234" spans="1:23" ht="15.75" hidden="1">
       <c r="A234" t="s">
-        <v>941</v>
+        <v>833</v>
       </c>
       <c r="B234" s="225" t="s">
         <v>149</v>
@@ -40282,9 +39960,9 @@
       </c>
       <c r="V234" s="243"/>
     </row>
-    <row r="235" spans="1:23" ht="31.5">
+    <row r="235" spans="1:23" ht="31.5" hidden="1">
       <c r="A235" t="s">
-        <v>942</v>
+        <v>834</v>
       </c>
       <c r="B235" s="225" t="s">
         <v>149</v>
@@ -40340,9 +40018,9 @@
       </c>
       <c r="V235" s="243"/>
     </row>
-    <row r="236" spans="1:23" ht="15.75">
+    <row r="236" spans="1:23" ht="15.75" hidden="1">
       <c r="A236" t="s">
-        <v>943</v>
+        <v>835</v>
       </c>
       <c r="B236" s="225" t="s">
         <v>149</v>
@@ -40402,9 +40080,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15.75">
+    <row r="237" spans="1:23" ht="15.75" hidden="1">
       <c r="A237" t="s">
-        <v>944</v>
+        <v>836</v>
       </c>
       <c r="B237" s="225" t="s">
         <v>149</v>
@@ -40464,9 +40142,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15.75">
+    <row r="238" spans="1:23" ht="15.75" hidden="1">
       <c r="A238" t="s">
-        <v>945</v>
+        <v>837</v>
       </c>
       <c r="B238" s="225" t="s">
         <v>149</v>
@@ -40526,9 +40204,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="31.5">
+    <row r="239" spans="1:23" ht="31.5" hidden="1">
       <c r="A239" t="s">
-        <v>946</v>
+        <v>838</v>
       </c>
       <c r="B239" s="225" t="s">
         <v>149</v>
@@ -40586,9 +40264,9 @@
       </c>
       <c r="V239" s="243"/>
     </row>
-    <row r="240" spans="1:23" ht="15.75">
+    <row r="240" spans="1:23" ht="15.75" hidden="1">
       <c r="A240" t="s">
-        <v>947</v>
+        <v>839</v>
       </c>
       <c r="B240" s="225" t="s">
         <v>149</v>
@@ -40646,9 +40324,9 @@
       </c>
       <c r="V240" s="243"/>
     </row>
-    <row r="241" spans="1:22" ht="15.75">
+    <row r="241" spans="1:22" ht="15.75" hidden="1">
       <c r="A241" t="s">
-        <v>948</v>
+        <v>840</v>
       </c>
       <c r="B241" s="225" t="s">
         <v>149</v>
@@ -40704,9 +40382,9 @@
       </c>
       <c r="V241" s="243"/>
     </row>
-    <row r="242" spans="1:22" ht="15.75">
+    <row r="242" spans="1:22" ht="15.75" hidden="1">
       <c r="A242" t="s">
-        <v>949</v>
+        <v>841</v>
       </c>
       <c r="B242" s="225" t="s">
         <v>149</v>
@@ -40766,9 +40444,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="15.75">
+    <row r="243" spans="1:22" ht="15.75" hidden="1">
       <c r="A243" t="s">
-        <v>950</v>
+        <v>842</v>
       </c>
       <c r="B243" s="225" t="s">
         <v>149</v>
@@ -40828,9 +40506,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="15.75">
+    <row r="244" spans="1:22" ht="15.75" hidden="1">
       <c r="A244" t="s">
-        <v>951</v>
+        <v>843</v>
       </c>
       <c r="B244" s="225" t="s">
         <v>149</v>
@@ -40890,9 +40568,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="31.5">
+    <row r="245" spans="1:22" ht="31.5" hidden="1">
       <c r="A245" t="s">
-        <v>952</v>
+        <v>844</v>
       </c>
       <c r="B245" s="225" t="s">
         <v>149</v>
@@ -40950,9 +40628,9 @@
       </c>
       <c r="V245" s="243"/>
     </row>
-    <row r="246" spans="1:22" ht="15.75">
+    <row r="246" spans="1:22" ht="15.75" hidden="1">
       <c r="A246" t="s">
-        <v>953</v>
+        <v>845</v>
       </c>
       <c r="B246" s="225" t="s">
         <v>149</v>
@@ -41010,9 +40688,9 @@
       </c>
       <c r="V246" s="243"/>
     </row>
-    <row r="247" spans="1:22" ht="31.5">
+    <row r="247" spans="1:22" ht="31.5" hidden="1">
       <c r="A247" t="s">
-        <v>954</v>
+        <v>846</v>
       </c>
       <c r="B247" s="225" t="s">
         <v>149</v>
@@ -41069,6 +40747,19 @@
       <c r="V247" s="243"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W247" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Jenny Laynes"/>
+        <filter val="Marco Quiroz"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="J1:O1"/>
   </mergeCells>
@@ -62068,15 +61759,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62341,21 +62029,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62380,9 +62068,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
+++ b/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DE7244-F7EB-4C3C-AB9E-756AA53CACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B87F7-B536-4767-BBCD-F6A366EF0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5291,6 +5291,7 @@
     <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5346,7 +5347,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -10406,14 +10406,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -13292,14 +13292,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="357" t="s">
+      <c r="I1" s="358" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
-      <c r="N1" s="357"/>
+      <c r="J1" s="358"/>
+      <c r="K1" s="358"/>
+      <c r="L1" s="358"/>
+      <c r="M1" s="358"/>
+      <c r="N1" s="358"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -16099,14 +16099,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -19168,14 +19168,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -22351,14 +22351,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -25273,9 +25273,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -25332,14 +25332,14 @@
       <c r="I1" s="247" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="358" t="s">
+      <c r="J1" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="358"/>
-      <c r="L1" s="358"/>
-      <c r="M1" s="358"/>
-      <c r="N1" s="358"/>
-      <c r="O1" s="358"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
+      <c r="N1" s="359"/>
+      <c r="O1" s="359"/>
       <c r="P1" s="249" t="s">
         <v>9</v>
       </c>
@@ -26003,7 +26003,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75">
-      <c r="A12" s="368">
+      <c r="A12" s="349">
         <v>11</v>
       </c>
       <c r="B12" s="213" t="s">
@@ -26849,8 +26849,8 @@
         <v>97</v>
       </c>
       <c r="I25" s="148"/>
-      <c r="J25" s="232">
-        <v>20</v>
+      <c r="J25" s="347">
+        <v>1000</v>
       </c>
       <c r="K25" s="318" t="s">
         <v>598</v>
@@ -40813,12 +40813,12 @@
       <c r="D1" s="126" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="359" t="s">
+      <c r="E1" s="360" t="s">
         <v>611</v>
       </c>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="362"/>
       <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -41449,14 +41449,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="362" t="s">
+      <c r="F1" s="363" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -42136,19 +42136,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="364" t="s">
+      <c r="A6" s="365" t="s">
         <v>689</v>
       </c>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="365" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="364" t="s">
+      <c r="C6" s="365" t="s">
         <v>676</v>
       </c>
-      <c r="D6" s="366" t="s">
+      <c r="D6" s="367" t="s">
         <v>690</v>
       </c>
-      <c r="E6" s="367" t="s">
+      <c r="E6" s="368" t="s">
         <v>618</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -42160,11 +42160,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="365"/>
-      <c r="B7" s="365"/>
-      <c r="C7" s="365"/>
-      <c r="D7" s="365"/>
-      <c r="E7" s="365"/>
+      <c r="A7" s="366"/>
+      <c r="B7" s="366"/>
+      <c r="C7" s="366"/>
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
       <c r="F7" s="61" t="s">
         <v>692</v>
       </c>
@@ -42269,14 +42269,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="349" t="s">
+      <c r="F1" s="350" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="352"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -42294,7 +42294,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="353" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -42345,7 +42345,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="353"/>
+      <c r="A3" s="354"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -42393,7 +42393,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="354"/>
+      <c r="A4" s="355"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -52680,14 +52680,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -61759,12 +61759,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62029,21 +62032,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62068,12 +62071,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
+++ b/PROYECTO AUTENTICACION/QA_Formato Pruebas no Funcionales - Jmeter - AUTH_v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B87F7-B536-4767-BBCD-F6A366EF0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65656319-AE95-45E9-A139-100B80B1C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="564" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId20"/>
-    <pivotCache cacheId="1" r:id="rId21"/>
-    <pivotCache cacheId="2" r:id="rId22"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
+    <pivotCache cacheId="5" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9078,7 +9078,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BD15845-010E-4EDB-AE85-87B55D017077}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BD15845-010E-4EDB-AE85-87B55D017077}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A5:F47" firstHeaderRow="1" firstDataRow="1" firstDataCol="6" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9872,7 +9872,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F3E5FC-D382-45BD-979E-7581E62CF24A}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F3E5FC-D382-45BD-979E-7581E62CF24A}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="J5:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -9944,7 +9944,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A57D004-AB0E-44F5-9DAB-3C2A8E9F4F32}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A57D004-AB0E-44F5-9DAB-3C2A8E9F4F32}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="J5:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -25273,9 +25273,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -61759,15 +61759,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62032,21 +62029,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62071,9 +62068,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>